--- a/carbon_copy_excels/ea-20250331_carbon_copy.xlsx
+++ b/carbon_copy_excels/ea-20250331_carbon_copy.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="125">
   <si>
     <t>Statement Name</t>
   </si>
@@ -59,13 +59,13 @@
     <t>Line Item (as printed)</t>
   </si>
   <si>
-    <t>(In millions, except per share data) 2023</t>
-  </si>
-  <si>
-    <t>(In millions, except per share data) 2024</t>
-  </si>
-  <si>
-    <t>(In millions, except per share data) 2025</t>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>2025</t>
   </si>
   <si>
     <t>Net revenue</t>
@@ -92,7 +92,7 @@
     <t>Amortization and impairment of intangibles</t>
   </si>
   <si>
-    <t>Restructuring (See Note</t>
+    <t>Restructuring (See Note 8)</t>
   </si>
   <si>
     <t>Total operating expenses</t>
@@ -101,7 +101,7 @@
     <t>Operating income</t>
   </si>
   <si>
-    <t>Interest and other income</t>
+    <t>Interest and other income (expense),</t>
   </si>
   <si>
     <t>Income before provision for income taxes</t>
@@ -125,22 +125,19 @@
     <t>Number of shares used in computation:</t>
   </si>
   <si>
+    <t>35</t>
+  </si>
+  <si>
     <t>CONSOLIDATED BALANCE SHEETS</t>
   </si>
   <si>
     <t>p.1</t>
   </si>
   <si>
-    <t>(In millions, except par value data) 2024</t>
-  </si>
-  <si>
-    <t>(In millions, except par value data) 2025</t>
-  </si>
-  <si>
-    <t>(In millions, except par value data) 31,</t>
-  </si>
-  <si>
-    <t>CONSOLIDATED BALANCE SHEETS (In millions, except par value data) 31,</t>
+    <t>March 31, 2024</t>
+  </si>
+  <si>
+    <t>March 31, 2025</t>
   </si>
   <si>
     <t>ASSETS</t>
@@ -212,16 +209,16 @@
     <t>Total liabilities</t>
   </si>
   <si>
-    <t>Commitments and contingencies (See Note</t>
+    <t>Commitments and contingencies (See Note 14)</t>
   </si>
   <si>
     <t>Stockholders’ equity:</t>
   </si>
   <si>
-    <t>Preferred stock,</t>
-  </si>
-  <si>
-    <t>Common stock,</t>
+    <t>Preferred stock</t>
+  </si>
+  <si>
+    <t>Common stock</t>
   </si>
   <si>
     <t>and outstanding, respectively</t>
@@ -233,7 +230,7 @@
     <t>Retained earnings</t>
   </si>
   <si>
-    <t>Accumulated other comprehensive income</t>
+    <t>Accumulated other comprehensive income (loss)</t>
   </si>
   <si>
     <t>Total stockholders’ equity</t>
@@ -242,21 +239,15 @@
     <t>TOTAL LIABILITIES AND STOCKHOLDERS’ EQUITY</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>CONSOLIDATED STATEMENTS OF CASH FLOWS</t>
   </si>
   <si>
     <t>p.3</t>
   </si>
   <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
-    <t>2025</t>
-  </si>
-  <si>
     <t>OPERATING ACTIVITIES</t>
   </si>
   <si>
@@ -299,25 +290,19 @@
     <t>FINANCING ACTIVITIES</t>
   </si>
   <si>
-    <t>Proceeds from issuance of common stock</t>
-  </si>
-  <si>
     <t>Cash dividends paid</t>
   </si>
   <si>
     <t>Cash paid to taxing authorities for shares withheld from employees</t>
   </si>
   <si>
-    <t>Common stock repurchases and excise taxes paid</t>
-  </si>
-  <si>
     <t>Net cash used in financing activities</t>
   </si>
   <si>
     <t>Effect of foreign exchange on cash and cash equivalents</t>
   </si>
   <si>
-    <t>Increase</t>
+    <t>Increase (decrease)</t>
   </si>
   <si>
     <t>Beginning cash and cash equivalents</t>
@@ -341,6 +326,9 @@
     <t>Change in accrued capital expenditures</t>
   </si>
   <si>
+    <t>38</t>
+  </si>
+  <si>
     <t>Statement</t>
   </si>
   <si>
@@ -386,22 +374,19 @@
     <t>Units/scale normalization</t>
   </si>
   <si>
-    <t>CHECK</t>
-  </si>
-  <si>
     <t>PASS</t>
   </si>
   <si>
-    <t>(In millions, except par value data) 2024: insufficient data; (In millions, except par value data) 2025: insufficient data; (In millions, except par value data) 31,: insufficient data; CONSOLIDATED BALANCE SHEETS (In millions, except par value data) 31,: insufficient data</t>
-  </si>
-  <si>
-    <t>2023: insufficient data; 2024: insufficient data; 2025: insufficient data</t>
-  </si>
-  <si>
-    <t>(In millions, except per share data) 2023: Δ 0; (In millions, except per share data) 2024: Δ 0; (In millions, except per share data) 2025: Δ 0</t>
-  </si>
-  <si>
-    <t>(In millions, except per share data) 2023: GP Δ 3584, OI Δ 0, PT Δ 0, NI Δ -802; (In millions, except per share data) 2024: GP Δ 3420, OI Δ 0, PT Δ 0, NI Δ -1273; (In millions, except per share data) 2025: GP Δ 3086, OI Δ 0, PT Δ 0, NI Δ -1121</t>
+    <t>March 31, 2024: Δ 0; March 31, 2025: Δ 0</t>
+  </si>
+  <si>
+    <t>2023: roll Δ 0; 2024: roll Δ 0; 2025: roll Δ 0</t>
+  </si>
+  <si>
+    <t>2023: Δ 0; 2024: Δ 0; 2025: Δ 0</t>
+  </si>
+  <si>
+    <t>2023: GP Δ 0, OI Δ 0, PT Δ 0, NI Δ 0; 2024: GP Δ 0, OI Δ 0, PT Δ 0, NI Δ 0; 2025: GP Δ 0, OI Δ 0, PT Δ 0, NI Δ 0</t>
   </si>
   <si>
     <t>Captured pages: CONSOLIDATED STATEMENTS OF OPERATIONS p.2, CONSOLIDATED BALANCE SHEETS p.1, CONSOLIDATED STATEMENTS OF CASH FLOWS p.3. Columns reordered oldest→newest.</t>
@@ -765,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1224,6 +1209,17 @@
         <v>264</v>
       </c>
     </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1231,21 +1227,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1261,7 +1257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1269,15 +1265,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -1288,30 +1284,24 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1319,27 +1309,27 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>43</v>
+      <c r="D10">
+        <v>2900</v>
       </c>
       <c r="E10">
-        <v>2900</v>
-      </c>
-      <c r="G10">
         <v>2136</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1347,33 +1337,33 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>362</v>
+      </c>
+      <c r="E11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
         <v>44</v>
       </c>
-      <c r="E11">
-        <v>362</v>
-      </c>
-      <c r="G11">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
+      <c r="D12">
+        <v>565</v>
       </c>
       <c r="E12">
-        <v>565</v>
-      </c>
-      <c r="G12">
         <v>679</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>6</v>
       </c>
@@ -1381,33 +1371,33 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13">
+        <v>420</v>
+      </c>
+      <c r="E13">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
         <v>46</v>
       </c>
-      <c r="E13">
-        <v>420</v>
-      </c>
-      <c r="G13">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
+      <c r="D14">
+        <v>4247</v>
       </c>
       <c r="E14">
-        <v>4247</v>
-      </c>
-      <c r="G14">
         <v>3276</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>8</v>
       </c>
@@ -1415,16 +1405,16 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="D15">
+        <v>578</v>
       </c>
       <c r="E15">
-        <v>578</v>
-      </c>
-      <c r="G15">
         <v>586</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>9</v>
       </c>
@@ -1432,16 +1422,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
+      </c>
+      <c r="D16">
+        <v>5379</v>
       </c>
       <c r="E16">
-        <v>5379</v>
-      </c>
-      <c r="G16">
         <v>5376</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1449,16 +1439,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="D17">
+        <v>400</v>
       </c>
       <c r="E17">
-        <v>400</v>
-      </c>
-      <c r="G17">
         <v>293</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>11</v>
       </c>
@@ -1466,16 +1456,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="D18">
+        <v>2380</v>
       </c>
       <c r="E18">
-        <v>2380</v>
-      </c>
-      <c r="G18">
         <v>2420</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>12</v>
       </c>
@@ -1483,16 +1473,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="D19">
+        <v>436</v>
       </c>
       <c r="E19">
-        <v>436</v>
-      </c>
-      <c r="G19">
         <v>417</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>13</v>
       </c>
@@ -1500,16 +1490,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="D20">
+        <v>13420</v>
       </c>
       <c r="E20">
-        <v>13420</v>
-      </c>
-      <c r="G20">
         <v>12368</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>14</v>
       </c>
@@ -1517,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>15</v>
       </c>
@@ -1528,10 +1518,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>16</v>
       </c>
@@ -1539,16 +1529,16 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="D23">
+        <v>1276</v>
       </c>
       <c r="E23">
-        <v>1276</v>
-      </c>
-      <c r="G23">
         <v>1359</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>17</v>
       </c>
@@ -1556,16 +1546,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>1814</v>
       </c>
       <c r="E24">
-        <v>1814</v>
-      </c>
-      <c r="G24">
         <v>1700</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1573,13 +1563,13 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="G25">
+        <v>57</v>
+      </c>
+      <c r="E25">
         <v>400</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:5">
       <c r="A26">
         <v>19</v>
       </c>
@@ -1587,16 +1577,16 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>3090</v>
       </c>
       <c r="E26">
-        <v>3090</v>
-      </c>
-      <c r="G26">
         <v>3459</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:5">
       <c r="A27">
         <v>20</v>
       </c>
@@ -1604,16 +1594,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
+      </c>
+      <c r="D27">
+        <v>1882</v>
       </c>
       <c r="E27">
-        <v>1882</v>
-      </c>
-      <c r="G27">
         <v>1484</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:5">
       <c r="A28">
         <v>21</v>
       </c>
@@ -1621,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>60</v>
+      </c>
+      <c r="D28">
+        <v>497</v>
       </c>
       <c r="E28">
-        <v>497</v>
-      </c>
-      <c r="G28">
         <v>594</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:5">
       <c r="A29">
         <v>22</v>
       </c>
@@ -1638,16 +1628,16 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
+      </c>
+      <c r="D29">
+        <v>438</v>
       </c>
       <c r="E29">
-        <v>438</v>
-      </c>
-      <c r="G29">
         <v>445</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:5">
       <c r="A30">
         <v>23</v>
       </c>
@@ -1655,16 +1645,16 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="D30">
+        <v>5907</v>
       </c>
       <c r="E30">
-        <v>5907</v>
-      </c>
-      <c r="G30">
         <v>5982</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:5">
       <c r="A31">
         <v>24</v>
       </c>
@@ -1672,10 +1662,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32">
         <v>25</v>
       </c>
@@ -1683,10 +1673,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>26</v>
       </c>
@@ -1694,16 +1684,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="G33">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34">
         <v>27</v>
       </c>
@@ -1711,22 +1695,16 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34">
-        <v>266</v>
+        <v>3</v>
       </c>
       <c r="E34">
-        <v>1000</v>
-      </c>
-      <c r="F34">
-        <v>252</v>
-      </c>
-      <c r="G34">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35">
         <v>28</v>
       </c>
@@ -1734,16 +1712,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
-      </c>
-      <c r="E35">
-        <v>3</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36">
         <v>29</v>
       </c>
@@ -1751,10 +1723,10 @@
         <v>1</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37">
         <v>30</v>
       </c>
@@ -1762,16 +1734,16 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="D37">
+        <v>7582</v>
       </c>
       <c r="E37">
-        <v>7582</v>
-      </c>
-      <c r="G37">
         <v>6470</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:5">
       <c r="A38">
         <v>31</v>
       </c>
@@ -1779,16 +1751,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
+      </c>
+      <c r="D38">
+        <v>-72</v>
       </c>
       <c r="E38">
         <v>-87</v>
       </c>
-      <c r="F38">
-        <v>-72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39">
         <v>32</v>
       </c>
@@ -1796,16 +1768,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>7513</v>
       </c>
       <c r="E39">
-        <v>7513</v>
-      </c>
-      <c r="G39">
         <v>6386</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:5">
       <c r="A40">
         <v>33</v>
       </c>
@@ -1813,13 +1785,24 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40">
+        <v>13420</v>
+      </c>
+      <c r="E40">
+        <v>12368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
         <v>73</v>
-      </c>
-      <c r="E40">
-        <v>13420</v>
-      </c>
-      <c r="G40">
-        <v>12368</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1812,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1886,13 +1869,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1903,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1934,7 +1917,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1945,7 +1928,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1956,7 +1939,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D12">
         <v>536</v>
@@ -1976,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D13">
         <v>548</v>
@@ -1996,7 +1979,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2007,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>-34</v>
@@ -2027,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16">
         <v>-103</v>
@@ -2047,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D17">
         <v>144</v>
@@ -2067,7 +2050,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>-221</v>
@@ -2087,7 +2070,7 @@
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19">
         <v>-122</v>
@@ -2107,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D20">
         <v>1550</v>
@@ -2127,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2138,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D22">
         <v>-207</v>
@@ -2158,7 +2141,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D23">
         <v>395</v>
@@ -2178,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D24">
         <v>-405</v>
@@ -2198,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D25">
         <v>-217</v>
@@ -2218,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2229,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>80</v>
@@ -2249,7 +2232,7 @@
         <v>1</v>
       </c>
       <c r="C28" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D28">
         <v>-210</v>
@@ -2269,7 +2252,7 @@
         <v>1</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D29">
         <v>-175</v>
@@ -2289,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>-1295</v>
@@ -2309,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D31">
         <v>-1600</v>
@@ -2329,7 +2312,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="D32">
         <v>-41</v>
@@ -2349,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D33">
         <v>-308</v>
@@ -2369,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D34">
         <v>2732</v>
@@ -2389,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D35">
         <v>2424</v>
@@ -2409,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2420,7 +2403,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D37">
         <v>-583</v>
@@ -2440,7 +2423,7 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D38">
         <v>-56</v>
@@ -2460,7 +2443,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2471,13 +2454,24 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D40">
         <v>-3</v>
       </c>
       <c r="E40">
         <v>-25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41">
+        <v>34</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2487,7 +2481,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K295"/>
+  <dimension ref="A1:K237"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2495,7 +2489,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>10</v>
@@ -2507,10 +2501,10 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -2519,13 +2513,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -4519,19 +4513,19 @@
     </row>
     <row r="65" spans="1:11">
       <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>2</v>
+      </c>
+      <c r="D65" t="s">
         <v>35</v>
       </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>0</v>
-      </c>
-      <c r="D65" t="s">
-        <v>41</v>
-      </c>
       <c r="E65" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G65" t="s">
         <v>3</v>
@@ -4543,24 +4537,24 @@
         <v>7</v>
       </c>
       <c r="K65" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:11">
       <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
         <v>35</v>
       </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66" t="s">
-        <v>41</v>
-      </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="G66" t="s">
         <v>3</v>
@@ -4572,24 +4566,24 @@
         <v>7</v>
       </c>
       <c r="K66" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:11">
       <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>22</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
         <v>35</v>
       </c>
-      <c r="B67">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>0</v>
-      </c>
-      <c r="D67" t="s">
-        <v>41</v>
-      </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G67" t="s">
         <v>3</v>
@@ -4601,12 +4595,12 @@
         <v>7</v>
       </c>
       <c r="K67" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:11">
       <c r="A68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4615,10 +4609,10 @@
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G68" t="s">
         <v>3</v>
@@ -4630,41 +4624,41 @@
         <v>7</v>
       </c>
       <c r="K68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:11">
       <c r="A69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
+        <v>39</v>
+      </c>
+      <c r="G69" t="s">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>5</v>
+      </c>
+      <c r="J69" t="s">
+        <v>7</v>
+      </c>
+      <c r="K69" t="s">
         <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>3</v>
-      </c>
-      <c r="H69" t="s">
-        <v>5</v>
-      </c>
-      <c r="J69" t="s">
-        <v>7</v>
-      </c>
-      <c r="K69" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:11">
       <c r="A70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -4673,7 +4667,7 @@
         <v>0</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70" t="s">
         <v>38</v>
@@ -4688,12 +4682,12 @@
         <v>7</v>
       </c>
       <c r="K70" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -4702,7 +4696,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E71" t="s">
         <v>39</v>
@@ -4717,24 +4711,27 @@
         <v>7</v>
       </c>
       <c r="K71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
         <v>42</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="F72">
+        <v>2900</v>
       </c>
       <c r="G72" t="s">
         <v>3</v>
@@ -4746,12 +4743,12 @@
         <v>7</v>
       </c>
       <c r="K72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:11">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -4760,30 +4757,33 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E73" t="s">
+        <v>39</v>
+      </c>
+      <c r="F73">
+        <v>2136</v>
+      </c>
+      <c r="G73" t="s">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
+        <v>5</v>
+      </c>
+      <c r="J73" t="s">
+        <v>7</v>
+      </c>
+      <c r="K73" t="s">
         <v>37</v>
-      </c>
-      <c r="G73" t="s">
-        <v>3</v>
-      </c>
-      <c r="H73" t="s">
-        <v>5</v>
-      </c>
-      <c r="J73" t="s">
-        <v>7</v>
-      </c>
-      <c r="K73" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:11">
       <c r="A74" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4795,7 +4795,7 @@
         <v>38</v>
       </c>
       <c r="F74">
-        <v>2900</v>
+        <v>362</v>
       </c>
       <c r="G74" t="s">
         <v>3</v>
@@ -4807,15 +4807,15 @@
         <v>7</v>
       </c>
       <c r="K74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B75">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4826,6 +4826,9 @@
       <c r="E75" t="s">
         <v>39</v>
       </c>
+      <c r="F75">
+        <v>112</v>
+      </c>
       <c r="G75" t="s">
         <v>3</v>
       </c>
@@ -4836,27 +4839,27 @@
         <v>7</v>
       </c>
       <c r="K75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:11">
       <c r="A76" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B76">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E76" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F76">
-        <v>2136</v>
+        <v>565</v>
       </c>
       <c r="G76" t="s">
         <v>3</v>
@@ -4868,15 +4871,15 @@
         <v>7</v>
       </c>
       <c r="K76" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B77">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4885,39 +4888,42 @@
         <v>44</v>
       </c>
       <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77">
+        <v>679</v>
+      </c>
+      <c r="G77" t="s">
+        <v>3</v>
+      </c>
+      <c r="H77" t="s">
+        <v>5</v>
+      </c>
+      <c r="J77" t="s">
+        <v>7</v>
+      </c>
+      <c r="K77" t="s">
         <v>37</v>
-      </c>
-      <c r="G77" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77" t="s">
-        <v>5</v>
-      </c>
-      <c r="J77" t="s">
-        <v>7</v>
-      </c>
-      <c r="K77" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B78">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E78" t="s">
         <v>38</v>
       </c>
       <c r="F78">
-        <v>362</v>
+        <v>420</v>
       </c>
       <c r="G78" t="s">
         <v>3</v>
@@ -4929,25 +4935,28 @@
         <v>7</v>
       </c>
       <c r="K78" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B79">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E79" t="s">
         <v>39</v>
       </c>
+      <c r="F79">
+        <v>349</v>
+      </c>
       <c r="G79" t="s">
         <v>3</v>
       </c>
@@ -4958,27 +4967,27 @@
         <v>7</v>
       </c>
       <c r="K79" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:11">
       <c r="A80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B80">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D80" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F80">
-        <v>112</v>
+        <v>4247</v>
       </c>
       <c r="G80" t="s">
         <v>3</v>
@@ -4990,56 +4999,59 @@
         <v>7</v>
       </c>
       <c r="K80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D81" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E81" t="s">
+        <v>39</v>
+      </c>
+      <c r="F81">
+        <v>3276</v>
+      </c>
+      <c r="G81" t="s">
+        <v>3</v>
+      </c>
+      <c r="H81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J81" t="s">
+        <v>7</v>
+      </c>
+      <c r="K81" t="s">
         <v>37</v>
-      </c>
-      <c r="G81" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" t="s">
-        <v>5</v>
-      </c>
-      <c r="J81" t="s">
-        <v>7</v>
-      </c>
-      <c r="K81" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B82">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D82" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E82" t="s">
         <v>38</v>
       </c>
       <c r="F82">
-        <v>565</v>
+        <v>578</v>
       </c>
       <c r="G82" t="s">
         <v>3</v>
@@ -5051,25 +5063,28 @@
         <v>7</v>
       </c>
       <c r="K82" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E83" t="s">
         <v>39</v>
       </c>
+      <c r="F83">
+        <v>586</v>
+      </c>
       <c r="G83" t="s">
         <v>3</v>
       </c>
@@ -5080,27 +5095,27 @@
         <v>7</v>
       </c>
       <c r="K83" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:11">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D84" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F84">
-        <v>679</v>
+        <v>5379</v>
       </c>
       <c r="G84" t="s">
         <v>3</v>
@@ -5112,56 +5127,59 @@
         <v>7</v>
       </c>
       <c r="K84" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="1:11">
       <c r="A85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E85" t="s">
+        <v>39</v>
+      </c>
+      <c r="F85">
+        <v>5376</v>
+      </c>
+      <c r="G85" t="s">
+        <v>3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>5</v>
+      </c>
+      <c r="J85" t="s">
+        <v>7</v>
+      </c>
+      <c r="K85" t="s">
         <v>37</v>
-      </c>
-      <c r="G85" t="s">
-        <v>3</v>
-      </c>
-      <c r="H85" t="s">
-        <v>5</v>
-      </c>
-      <c r="J85" t="s">
-        <v>7</v>
-      </c>
-      <c r="K85" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="86" spans="1:11">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B86">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E86" t="s">
         <v>38</v>
       </c>
       <c r="F86">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G86" t="s">
         <v>3</v>
@@ -5173,25 +5191,28 @@
         <v>7</v>
       </c>
       <c r="K86" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B87">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D87" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E87" t="s">
         <v>39</v>
       </c>
+      <c r="F87">
+        <v>293</v>
+      </c>
       <c r="G87" t="s">
         <v>3</v>
       </c>
@@ -5202,27 +5223,27 @@
         <v>7</v>
       </c>
       <c r="K87" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:11">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B88">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E88" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F88">
-        <v>349</v>
+        <v>2380</v>
       </c>
       <c r="G88" t="s">
         <v>3</v>
@@ -5234,56 +5255,59 @@
         <v>7</v>
       </c>
       <c r="K88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:11">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B89">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C89">
         <v>0</v>
       </c>
       <c r="D89" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E89" t="s">
+        <v>39</v>
+      </c>
+      <c r="F89">
+        <v>2420</v>
+      </c>
+      <c r="G89" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" t="s">
+        <v>7</v>
+      </c>
+      <c r="K89" t="s">
         <v>37</v>
-      </c>
-      <c r="G89" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" t="s">
-        <v>7</v>
-      </c>
-      <c r="K89" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B90">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C90">
         <v>0</v>
       </c>
       <c r="D90" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E90" t="s">
         <v>38</v>
       </c>
       <c r="F90">
-        <v>4247</v>
+        <v>436</v>
       </c>
       <c r="G90" t="s">
         <v>3</v>
@@ -5295,25 +5319,28 @@
         <v>7</v>
       </c>
       <c r="K90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B91">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C91">
         <v>0</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E91" t="s">
         <v>39</v>
       </c>
+      <c r="F91">
+        <v>417</v>
+      </c>
       <c r="G91" t="s">
         <v>3</v>
       </c>
@@ -5324,27 +5351,27 @@
         <v>7</v>
       </c>
       <c r="K91" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:11">
       <c r="A92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B92">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C92">
         <v>0</v>
       </c>
       <c r="D92" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E92" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F92">
-        <v>3276</v>
+        <v>13420</v>
       </c>
       <c r="G92" t="s">
         <v>3</v>
@@ -5356,57 +5383,57 @@
         <v>7</v>
       </c>
       <c r="K92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="93" spans="1:11">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C93">
         <v>0</v>
       </c>
       <c r="D93" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E93" t="s">
+        <v>39</v>
+      </c>
+      <c r="F93">
+        <v>12368</v>
+      </c>
+      <c r="G93" t="s">
+        <v>3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>5</v>
+      </c>
+      <c r="J93" t="s">
+        <v>7</v>
+      </c>
+      <c r="K93" t="s">
         <v>37</v>
-      </c>
-      <c r="G93" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93" t="s">
-        <v>5</v>
-      </c>
-      <c r="J93" t="s">
-        <v>7</v>
-      </c>
-      <c r="K93" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="94" spans="1:11">
       <c r="A94" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B94">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C94">
         <v>0</v>
       </c>
       <c r="D94" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E94" t="s">
         <v>38</v>
       </c>
-      <c r="F94">
-        <v>578</v>
-      </c>
       <c r="G94" t="s">
         <v>3</v>
       </c>
@@ -5417,21 +5444,21 @@
         <v>7</v>
       </c>
       <c r="K94" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:11">
       <c r="A95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B95">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C95">
         <v>0</v>
       </c>
       <c r="D95" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E95" t="s">
         <v>39</v>
@@ -5446,27 +5473,24 @@
         <v>7</v>
       </c>
       <c r="K95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="96" spans="1:11">
       <c r="A96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B96">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C96">
         <v>0</v>
       </c>
       <c r="D96" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E96" t="s">
-        <v>40</v>
-      </c>
-      <c r="F96">
-        <v>586</v>
+        <v>38</v>
       </c>
       <c r="G96" t="s">
         <v>3</v>
@@ -5478,56 +5502,56 @@
         <v>7</v>
       </c>
       <c r="K96" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B97">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C97">
         <v>0</v>
       </c>
       <c r="D97" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E97" t="s">
+        <v>39</v>
+      </c>
+      <c r="G97" t="s">
+        <v>3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>5</v>
+      </c>
+      <c r="J97" t="s">
+        <v>7</v>
+      </c>
+      <c r="K97" t="s">
         <v>37</v>
-      </c>
-      <c r="G97" t="s">
-        <v>3</v>
-      </c>
-      <c r="H97" t="s">
-        <v>5</v>
-      </c>
-      <c r="J97" t="s">
-        <v>7</v>
-      </c>
-      <c r="K97" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:11">
       <c r="A98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B98">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E98" t="s">
         <v>38</v>
       </c>
       <c r="F98">
-        <v>5379</v>
+        <v>1276</v>
       </c>
       <c r="G98" t="s">
         <v>3</v>
@@ -5539,25 +5563,28 @@
         <v>7</v>
       </c>
       <c r="K98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B99">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E99" t="s">
         <v>39</v>
       </c>
+      <c r="F99">
+        <v>1359</v>
+      </c>
       <c r="G99" t="s">
         <v>3</v>
       </c>
@@ -5568,27 +5595,27 @@
         <v>7</v>
       </c>
       <c r="K99" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:11">
       <c r="A100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B100">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F100">
-        <v>5376</v>
+        <v>1814</v>
       </c>
       <c r="G100" t="s">
         <v>3</v>
@@ -5600,57 +5627,57 @@
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:11">
       <c r="A101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B101">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D101" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E101" t="s">
+        <v>39</v>
+      </c>
+      <c r="F101">
+        <v>1700</v>
+      </c>
+      <c r="G101" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" t="s">
+        <v>7</v>
+      </c>
+      <c r="K101" t="s">
         <v>37</v>
-      </c>
-      <c r="G101" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" t="s">
-        <v>7</v>
-      </c>
-      <c r="K101" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="102" spans="1:11">
       <c r="A102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B102">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E102" t="s">
         <v>38</v>
       </c>
-      <c r="F102">
-        <v>400</v>
-      </c>
       <c r="G102" t="s">
         <v>3</v>
       </c>
@@ -5661,25 +5688,28 @@
         <v>7</v>
       </c>
       <c r="K102" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:11">
       <c r="A103" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B103">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D103" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E103" t="s">
         <v>39</v>
       </c>
+      <c r="F103">
+        <v>400</v>
+      </c>
       <c r="G103" t="s">
         <v>3</v>
       </c>
@@ -5690,27 +5720,27 @@
         <v>7</v>
       </c>
       <c r="K103" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:11">
       <c r="A104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B104">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F104">
-        <v>293</v>
+        <v>3090</v>
       </c>
       <c r="G104" t="s">
         <v>3</v>
@@ -5722,56 +5752,59 @@
         <v>7</v>
       </c>
       <c r="K104" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:11">
       <c r="A105" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B105">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C105">
         <v>0</v>
       </c>
       <c r="D105" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E105" t="s">
+        <v>39</v>
+      </c>
+      <c r="F105">
+        <v>3459</v>
+      </c>
+      <c r="G105" t="s">
+        <v>3</v>
+      </c>
+      <c r="H105" t="s">
+        <v>5</v>
+      </c>
+      <c r="J105" t="s">
+        <v>7</v>
+      </c>
+      <c r="K105" t="s">
         <v>37</v>
-      </c>
-      <c r="G105" t="s">
-        <v>3</v>
-      </c>
-      <c r="H105" t="s">
-        <v>5</v>
-      </c>
-      <c r="J105" t="s">
-        <v>7</v>
-      </c>
-      <c r="K105" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B106">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C106">
         <v>0</v>
       </c>
       <c r="D106" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E106" t="s">
         <v>38</v>
       </c>
       <c r="F106">
-        <v>2380</v>
+        <v>1882</v>
       </c>
       <c r="G106" t="s">
         <v>3</v>
@@ -5783,25 +5816,28 @@
         <v>7</v>
       </c>
       <c r="K106" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:11">
       <c r="A107" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B107">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C107">
         <v>0</v>
       </c>
       <c r="D107" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E107" t="s">
         <v>39</v>
       </c>
+      <c r="F107">
+        <v>1484</v>
+      </c>
       <c r="G107" t="s">
         <v>3</v>
       </c>
@@ -5812,27 +5848,27 @@
         <v>7</v>
       </c>
       <c r="K107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:11">
       <c r="A108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C108">
         <v>0</v>
       </c>
       <c r="D108" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="E108" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F108">
-        <v>2420</v>
+        <v>497</v>
       </c>
       <c r="G108" t="s">
         <v>3</v>
@@ -5844,56 +5880,59 @@
         <v>7</v>
       </c>
       <c r="K108" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:11">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B109">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C109">
         <v>0</v>
       </c>
       <c r="D109" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E109" t="s">
+        <v>39</v>
+      </c>
+      <c r="F109">
+        <v>594</v>
+      </c>
+      <c r="G109" t="s">
+        <v>3</v>
+      </c>
+      <c r="H109" t="s">
+        <v>5</v>
+      </c>
+      <c r="J109" t="s">
+        <v>7</v>
+      </c>
+      <c r="K109" t="s">
         <v>37</v>
-      </c>
-      <c r="G109" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109" t="s">
-        <v>5</v>
-      </c>
-      <c r="J109" t="s">
-        <v>7</v>
-      </c>
-      <c r="K109" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="110" spans="1:11">
       <c r="A110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B110">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C110">
         <v>0</v>
       </c>
       <c r="D110" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E110" t="s">
         <v>38</v>
       </c>
       <c r="F110">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G110" t="s">
         <v>3</v>
@@ -5905,25 +5944,28 @@
         <v>7</v>
       </c>
       <c r="K110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:11">
       <c r="A111" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B111">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E111" t="s">
         <v>39</v>
       </c>
+      <c r="F111">
+        <v>445</v>
+      </c>
       <c r="G111" t="s">
         <v>3</v>
       </c>
@@ -5934,27 +5976,27 @@
         <v>7</v>
       </c>
       <c r="K111" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:11">
       <c r="A112" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B112">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C112">
         <v>0</v>
       </c>
       <c r="D112" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F112">
-        <v>417</v>
+        <v>5907</v>
       </c>
       <c r="G112" t="s">
         <v>3</v>
@@ -5966,57 +6008,57 @@
         <v>7</v>
       </c>
       <c r="K112" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:11">
       <c r="A113" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B113">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C113">
         <v>0</v>
       </c>
       <c r="D113" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E113" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113">
+        <v>5982</v>
+      </c>
+      <c r="G113" t="s">
+        <v>3</v>
+      </c>
+      <c r="H113" t="s">
+        <v>5</v>
+      </c>
+      <c r="J113" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" t="s">
         <v>37</v>
-      </c>
-      <c r="G113" t="s">
-        <v>3</v>
-      </c>
-      <c r="H113" t="s">
-        <v>5</v>
-      </c>
-      <c r="J113" t="s">
-        <v>7</v>
-      </c>
-      <c r="K113" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B114">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C114">
         <v>0</v>
       </c>
       <c r="D114" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E114" t="s">
         <v>38</v>
       </c>
-      <c r="F114">
-        <v>13420</v>
-      </c>
       <c r="G114" t="s">
         <v>3</v>
       </c>
@@ -6027,21 +6069,21 @@
         <v>7</v>
       </c>
       <c r="K114" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B115">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C115">
         <v>0</v>
       </c>
       <c r="D115" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E115" t="s">
         <v>39</v>
@@ -6056,27 +6098,24 @@
         <v>7</v>
       </c>
       <c r="K115" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B116">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C116">
         <v>0</v>
       </c>
       <c r="D116" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="E116" t="s">
-        <v>40</v>
-      </c>
-      <c r="F116">
-        <v>12368</v>
+        <v>38</v>
       </c>
       <c r="G116" t="s">
         <v>3</v>
@@ -6088,50 +6127,50 @@
         <v>7</v>
       </c>
       <c r="K116" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B117">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C117">
         <v>0</v>
       </c>
       <c r="D117" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="E117" t="s">
+        <v>39</v>
+      </c>
+      <c r="G117" t="s">
+        <v>3</v>
+      </c>
+      <c r="H117" t="s">
+        <v>5</v>
+      </c>
+      <c r="J117" t="s">
+        <v>7</v>
+      </c>
+      <c r="K117" t="s">
         <v>37</v>
-      </c>
-      <c r="G117" t="s">
-        <v>3</v>
-      </c>
-      <c r="H117" t="s">
-        <v>5</v>
-      </c>
-      <c r="J117" t="s">
-        <v>7</v>
-      </c>
-      <c r="K117" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B118">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E118" t="s">
         <v>38</v>
@@ -6146,21 +6185,21 @@
         <v>7</v>
       </c>
       <c r="K118" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B119">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E119" t="s">
         <v>39</v>
@@ -6175,24 +6214,27 @@
         <v>7</v>
       </c>
       <c r="K119" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B120">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>38</v>
+      </c>
+      <c r="F120">
+        <v>3</v>
       </c>
       <c r="G120" t="s">
         <v>3</v>
@@ -6204,50 +6246,53 @@
         <v>7</v>
       </c>
       <c r="K120" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:11">
       <c r="A121" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B121">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="E121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121">
+        <v>3</v>
+      </c>
+      <c r="G121" t="s">
+        <v>3</v>
+      </c>
+      <c r="H121" t="s">
+        <v>5</v>
+      </c>
+      <c r="J121" t="s">
+        <v>7</v>
+      </c>
+      <c r="K121" t="s">
         <v>37</v>
-      </c>
-      <c r="G121" t="s">
-        <v>3</v>
-      </c>
-      <c r="H121" t="s">
-        <v>5</v>
-      </c>
-      <c r="J121" t="s">
-        <v>7</v>
-      </c>
-      <c r="K121" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="122" spans="1:11">
       <c r="A122" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B122">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E122" t="s">
         <v>38</v>
@@ -6262,21 +6307,21 @@
         <v>7</v>
       </c>
       <c r="K122" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B123">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D123" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E123" t="s">
         <v>39</v>
@@ -6291,24 +6336,24 @@
         <v>7</v>
       </c>
       <c r="K123" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B124">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="E124" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G124" t="s">
         <v>3</v>
@@ -6320,56 +6365,56 @@
         <v>7</v>
       </c>
       <c r="K124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B125">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C125">
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E125" t="s">
+        <v>39</v>
+      </c>
+      <c r="G125" t="s">
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>5</v>
+      </c>
+      <c r="J125" t="s">
+        <v>7</v>
+      </c>
+      <c r="K125" t="s">
         <v>37</v>
-      </c>
-      <c r="G125" t="s">
-        <v>3</v>
-      </c>
-      <c r="H125" t="s">
-        <v>5</v>
-      </c>
-      <c r="J125" t="s">
-        <v>7</v>
-      </c>
-      <c r="K125" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="126" spans="1:11">
       <c r="A126" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B126">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E126" t="s">
         <v>38</v>
       </c>
       <c r="F126">
-        <v>1276</v>
+        <v>7582</v>
       </c>
       <c r="G126" t="s">
         <v>3</v>
@@ -6381,25 +6426,28 @@
         <v>7</v>
       </c>
       <c r="K126" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="127" spans="1:11">
       <c r="A127" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B127">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C127">
         <v>1</v>
       </c>
       <c r="D127" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="E127" t="s">
         <v>39</v>
       </c>
+      <c r="F127">
+        <v>6470</v>
+      </c>
       <c r="G127" t="s">
         <v>3</v>
       </c>
@@ -6410,27 +6458,27 @@
         <v>7</v>
       </c>
       <c r="K127" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="128" spans="1:11">
       <c r="A128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B128">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C128">
         <v>1</v>
       </c>
       <c r="D128" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="E128" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F128">
-        <v>1359</v>
+        <v>-72</v>
       </c>
       <c r="G128" t="s">
         <v>3</v>
@@ -6442,56 +6490,59 @@
         <v>7</v>
       </c>
       <c r="K128" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="129" spans="1:11">
       <c r="A129" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B129">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C129">
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="E129" t="s">
+        <v>39</v>
+      </c>
+      <c r="F129">
+        <v>-87</v>
+      </c>
+      <c r="G129" t="s">
+        <v>3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>5</v>
+      </c>
+      <c r="J129" t="s">
+        <v>7</v>
+      </c>
+      <c r="K129" t="s">
         <v>37</v>
-      </c>
-      <c r="G129" t="s">
-        <v>3</v>
-      </c>
-      <c r="H129" t="s">
-        <v>5</v>
-      </c>
-      <c r="J129" t="s">
-        <v>7</v>
-      </c>
-      <c r="K129" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="130" spans="1:11">
       <c r="A130" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B130">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E130" t="s">
         <v>38</v>
       </c>
       <c r="F130">
-        <v>1814</v>
+        <v>7513</v>
       </c>
       <c r="G130" t="s">
         <v>3</v>
@@ -6503,25 +6554,28 @@
         <v>7</v>
       </c>
       <c r="K130" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="131" spans="1:11">
       <c r="A131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B131">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="E131" t="s">
         <v>39</v>
       </c>
+      <c r="F131">
+        <v>6386</v>
+      </c>
       <c r="G131" t="s">
         <v>3</v>
       </c>
@@ -6532,27 +6586,27 @@
         <v>7</v>
       </c>
       <c r="K131" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B132">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D132" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E132" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F132">
-        <v>1700</v>
+        <v>13420</v>
       </c>
       <c r="G132" t="s">
         <v>3</v>
@@ -6564,50 +6618,53 @@
         <v>7</v>
       </c>
       <c r="K132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B133">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D133" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="E133" t="s">
+        <v>39</v>
+      </c>
+      <c r="F133">
+        <v>12368</v>
+      </c>
+      <c r="G133" t="s">
+        <v>3</v>
+      </c>
+      <c r="H133" t="s">
+        <v>5</v>
+      </c>
+      <c r="J133" t="s">
+        <v>7</v>
+      </c>
+      <c r="K133" t="s">
         <v>37</v>
-      </c>
-      <c r="G133" t="s">
-        <v>3</v>
-      </c>
-      <c r="H133" t="s">
-        <v>5</v>
-      </c>
-      <c r="J133" t="s">
-        <v>7</v>
-      </c>
-      <c r="K133" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B134">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D134" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E134" t="s">
         <v>38</v>
@@ -6622,21 +6679,21 @@
         <v>7</v>
       </c>
       <c r="K134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:11">
       <c r="A135" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B135">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D135" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="E135" t="s">
         <v>39</v>
@@ -6651,27 +6708,24 @@
         <v>7</v>
       </c>
       <c r="K135" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:11">
       <c r="A136" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B136">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="E136" t="s">
-        <v>40</v>
-      </c>
-      <c r="F136">
-        <v>400</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
         <v>3</v>
@@ -6683,24 +6737,24 @@
         <v>7</v>
       </c>
       <c r="K136" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="137" spans="1:11">
       <c r="A137" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B137">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C137">
         <v>0</v>
       </c>
       <c r="D137" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E137" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="G137" t="s">
         <v>3</v>
@@ -6712,27 +6766,24 @@
         <v>7</v>
       </c>
       <c r="K137" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="138" spans="1:11">
       <c r="A138" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B138">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="C138">
         <v>0</v>
       </c>
       <c r="D138" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
-      </c>
-      <c r="F138">
-        <v>3090</v>
+        <v>15</v>
       </c>
       <c r="G138" t="s">
         <v>3</v>
@@ -6744,24 +6795,27 @@
         <v>7</v>
       </c>
       <c r="K138" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="139" spans="1:11">
       <c r="A139" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B139">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C139">
         <v>0</v>
       </c>
       <c r="D139" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="F139">
+        <v>802</v>
       </c>
       <c r="G139" t="s">
         <v>3</v>
@@ -6773,27 +6827,27 @@
         <v>7</v>
       </c>
       <c r="K139" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="140" spans="1:11">
       <c r="A140" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B140">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="C140">
         <v>0</v>
       </c>
       <c r="D140" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F140">
-        <v>3459</v>
+        <v>1273</v>
       </c>
       <c r="G140" t="s">
         <v>3</v>
@@ -6805,24 +6859,27 @@
         <v>7</v>
       </c>
       <c r="K140" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="141" spans="1:11">
       <c r="A141" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B141">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C141">
         <v>0</v>
       </c>
       <c r="D141" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E141" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="F141">
+        <v>1121</v>
       </c>
       <c r="G141" t="s">
         <v>3</v>
@@ -6834,27 +6891,24 @@
         <v>7</v>
       </c>
       <c r="K141" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="142" spans="1:11">
       <c r="A142" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B142">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D142" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E142" t="s">
-        <v>38</v>
-      </c>
-      <c r="F142">
-        <v>1882</v>
+        <v>13</v>
       </c>
       <c r="G142" t="s">
         <v>3</v>
@@ -6866,24 +6920,24 @@
         <v>7</v>
       </c>
       <c r="K142" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B143">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D143" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G143" t="s">
         <v>3</v>
@@ -6895,27 +6949,24 @@
         <v>7</v>
       </c>
       <c r="K143" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B144">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="E144" t="s">
-        <v>40</v>
-      </c>
-      <c r="F144">
-        <v>1484</v>
+        <v>15</v>
       </c>
       <c r="G144" t="s">
         <v>3</v>
@@ -6927,24 +6978,24 @@
         <v>7</v>
       </c>
       <c r="K144" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B145">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D145" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E145" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
         <v>3</v>
@@ -6956,27 +7007,24 @@
         <v>7</v>
       </c>
       <c r="K145" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="146" spans="1:11">
       <c r="A146" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B146">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D146" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
-      </c>
-      <c r="F146">
-        <v>497</v>
+        <v>14</v>
       </c>
       <c r="G146" t="s">
         <v>3</v>
@@ -6988,24 +7036,24 @@
         <v>7</v>
       </c>
       <c r="K146" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="147" spans="1:11">
       <c r="A147" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B147">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="G147" t="s">
         <v>3</v>
@@ -7017,27 +7065,27 @@
         <v>7</v>
       </c>
       <c r="K147" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="148" spans="1:11">
       <c r="A148" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B148">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D148" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="E148" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F148">
-        <v>594</v>
+        <v>536</v>
       </c>
       <c r="G148" t="s">
         <v>3</v>
@@ -7049,24 +7097,27 @@
         <v>7</v>
       </c>
       <c r="K148" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="149" spans="1:11">
       <c r="A149" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B149">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D149" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E149" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="F149">
+        <v>404</v>
       </c>
       <c r="G149" t="s">
         <v>3</v>
@@ -7078,27 +7129,27 @@
         <v>7</v>
       </c>
       <c r="K149" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="150" spans="1:11">
       <c r="A150" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B150">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D150" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F150">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="G150" t="s">
         <v>3</v>
@@ -7110,24 +7161,27 @@
         <v>7</v>
       </c>
       <c r="K150" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:11">
       <c r="A151" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B151">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="F151">
+        <v>548</v>
       </c>
       <c r="G151" t="s">
         <v>3</v>
@@ -7139,27 +7193,27 @@
         <v>7</v>
       </c>
       <c r="K151" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:11">
       <c r="A152" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B152">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C152">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D152" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E152" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="F152">
-        <v>445</v>
+        <v>584</v>
       </c>
       <c r="G152" t="s">
         <v>3</v>
@@ -7171,24 +7225,27 @@
         <v>7</v>
       </c>
       <c r="K152" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B153">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E153" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="F153">
+        <v>642</v>
       </c>
       <c r="G153" t="s">
         <v>3</v>
@@ -7200,27 +7257,24 @@
         <v>7</v>
       </c>
       <c r="K153" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B154">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
-      </c>
-      <c r="F154">
-        <v>5907</v>
+        <v>13</v>
       </c>
       <c r="G154" t="s">
         <v>3</v>
@@ -7232,24 +7286,24 @@
         <v>7</v>
       </c>
       <c r="K154" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B155">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D155" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G155" t="s">
         <v>3</v>
@@ -7261,27 +7315,24 @@
         <v>7</v>
       </c>
       <c r="K155" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="156" spans="1:11">
       <c r="A156" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B156">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D156" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E156" t="s">
-        <v>40</v>
-      </c>
-      <c r="F156">
-        <v>5982</v>
+        <v>15</v>
       </c>
       <c r="G156" t="s">
         <v>3</v>
@@ -7293,24 +7344,27 @@
         <v>7</v>
       </c>
       <c r="K156" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="157" spans="1:11">
       <c r="A157" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B157">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C157">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D157" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E157" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="F157">
+        <v>-34</v>
       </c>
       <c r="G157" t="s">
         <v>3</v>
@@ -7322,24 +7376,27 @@
         <v>7</v>
       </c>
       <c r="K157" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="158" spans="1:11">
       <c r="A158" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B158">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C158">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D158" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E158" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="F158">
+        <v>119</v>
       </c>
       <c r="G158" t="s">
         <v>3</v>
@@ -7351,24 +7408,27 @@
         <v>7</v>
       </c>
       <c r="K158" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:11">
       <c r="A159" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B159">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C159">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D159" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="F159">
+        <v>-115</v>
       </c>
       <c r="G159" t="s">
         <v>3</v>
@@ -7380,24 +7440,27 @@
         <v>7</v>
       </c>
       <c r="K159" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="160" spans="1:11">
       <c r="A160" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B160">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C160">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E160" t="s">
-        <v>40</v>
+        <v>13</v>
+      </c>
+      <c r="F160">
+        <v>-103</v>
       </c>
       <c r="G160" t="s">
         <v>3</v>
@@ -7409,24 +7472,27 @@
         <v>7</v>
       </c>
       <c r="K160" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="161" spans="1:11">
       <c r="A161" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B161">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C161">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D161" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E161" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="F161">
+        <v>148</v>
       </c>
       <c r="G161" t="s">
         <v>3</v>
@@ -7438,24 +7504,27 @@
         <v>7</v>
       </c>
       <c r="K161" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="162" spans="1:11">
       <c r="A162" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B162">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D162" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="E162" t="s">
-        <v>38</v>
+        <v>15</v>
+      </c>
+      <c r="F162">
+        <v>40</v>
       </c>
       <c r="G162" t="s">
         <v>3</v>
@@ -7467,24 +7536,27 @@
         <v>7</v>
       </c>
       <c r="K162" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="163" spans="1:11">
       <c r="A163" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B163">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D163" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>13</v>
+      </c>
+      <c r="F163">
+        <v>144</v>
       </c>
       <c r="G163" t="s">
         <v>3</v>
@@ -7496,24 +7568,27 @@
         <v>7</v>
       </c>
       <c r="K163" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:11">
       <c r="A164" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B164">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D164" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="F164">
+        <v>-208</v>
       </c>
       <c r="G164" t="s">
         <v>3</v>
@@ -7525,24 +7600,27 @@
         <v>7</v>
       </c>
       <c r="K164" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:11">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B165">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D165" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E165" t="s">
-        <v>37</v>
+        <v>15</v>
+      </c>
+      <c r="F165">
+        <v>190</v>
       </c>
       <c r="G165" t="s">
         <v>3</v>
@@ -7554,27 +7632,27 @@
         <v>7</v>
       </c>
       <c r="K165" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="166" spans="1:11">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B166">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D166" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E166" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="F166">
-        <v>10</v>
+        <v>-221</v>
       </c>
       <c r="G166" t="s">
         <v>3</v>
@@ -7586,24 +7664,27 @@
         <v>7</v>
       </c>
       <c r="K166" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="167" spans="1:11">
       <c r="A167" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B167">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D167" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="F167">
+        <v>82</v>
       </c>
       <c r="G167" t="s">
         <v>3</v>
@@ -7615,27 +7696,27 @@
         <v>7</v>
       </c>
       <c r="K167" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="168" spans="1:11">
       <c r="A168" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B168">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D168" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E168" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F168">
-        <v>0.01</v>
+        <v>-41</v>
       </c>
       <c r="G168" t="s">
         <v>3</v>
@@ -7647,27 +7728,27 @@
         <v>7</v>
       </c>
       <c r="K168" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B169">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D169" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E169" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="F169">
-        <v>266</v>
+        <v>-122</v>
       </c>
       <c r="G169" t="s">
         <v>3</v>
@@ -7679,27 +7760,27 @@
         <v>7</v>
       </c>
       <c r="K169" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="170" spans="1:11">
       <c r="A170" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B170">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E170" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F170">
-        <v>1000</v>
+        <v>-87</v>
       </c>
       <c r="G170" t="s">
         <v>3</v>
@@ -7711,27 +7792,27 @@
         <v>7</v>
       </c>
       <c r="K170" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="171" spans="1:11">
       <c r="A171" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B171">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D171" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F171">
-        <v>252</v>
+        <v>-114</v>
       </c>
       <c r="G171" t="s">
         <v>3</v>
@@ -7743,27 +7824,27 @@
         <v>7</v>
       </c>
       <c r="K171" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="172" spans="1:11">
       <c r="A172" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B172">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D172" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E172" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F172">
-        <v>0.01</v>
+        <v>1550</v>
       </c>
       <c r="G172" t="s">
         <v>3</v>
@@ -7775,24 +7856,27 @@
         <v>7</v>
       </c>
       <c r="K172" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="173" spans="1:11">
       <c r="A173" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B173">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D173" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E173" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="F173">
+        <v>2315</v>
       </c>
       <c r="G173" t="s">
         <v>3</v>
@@ -7804,27 +7888,27 @@
         <v>7</v>
       </c>
       <c r="K173" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="174" spans="1:11">
       <c r="A174" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B174">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D174" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="E174" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>2079</v>
       </c>
       <c r="G174" t="s">
         <v>3</v>
@@ -7836,24 +7920,24 @@
         <v>7</v>
       </c>
       <c r="K174" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B175">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D175" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="G175" t="s">
         <v>3</v>
@@ -7865,27 +7949,24 @@
         <v>7</v>
       </c>
       <c r="K175" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B176">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D176" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E176" t="s">
-        <v>40</v>
-      </c>
-      <c r="F176">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G176" t="s">
         <v>3</v>
@@ -7897,24 +7978,24 @@
         <v>7</v>
       </c>
       <c r="K176" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="177" spans="1:11">
       <c r="A177" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B177">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D177" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E177" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="G177" t="s">
         <v>3</v>
@@ -7926,24 +8007,27 @@
         <v>7</v>
       </c>
       <c r="K177" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="178" spans="1:11">
       <c r="A178" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B178">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E178" t="s">
-        <v>38</v>
+        <v>13</v>
+      </c>
+      <c r="F178">
+        <v>-207</v>
       </c>
       <c r="G178" t="s">
         <v>3</v>
@@ -7955,24 +8039,27 @@
         <v>7</v>
       </c>
       <c r="K178" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B179">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E179" t="s">
-        <v>39</v>
+        <v>14</v>
+      </c>
+      <c r="F179">
+        <v>-199</v>
       </c>
       <c r="G179" t="s">
         <v>3</v>
@@ -7984,24 +8071,27 @@
         <v>7</v>
       </c>
       <c r="K179" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="180" spans="1:11">
       <c r="A180" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B180">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E180" t="s">
-        <v>40</v>
+        <v>15</v>
+      </c>
+      <c r="F180">
+        <v>-221</v>
       </c>
       <c r="G180" t="s">
         <v>3</v>
@@ -8013,24 +8103,27 @@
         <v>7</v>
       </c>
       <c r="K180" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="181" spans="1:11">
       <c r="A181" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B181">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E181" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="F181">
+        <v>395</v>
       </c>
       <c r="G181" t="s">
         <v>3</v>
@@ -8042,27 +8135,27 @@
         <v>7</v>
       </c>
       <c r="K181" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="182" spans="1:11">
       <c r="A182" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B182">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E182" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F182">
-        <v>7582</v>
+        <v>632</v>
       </c>
       <c r="G182" t="s">
         <v>3</v>
@@ -8074,24 +8167,27 @@
         <v>7</v>
       </c>
       <c r="K182" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="183" spans="1:11">
       <c r="A183" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B183">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="E183" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="F183">
+        <v>695</v>
       </c>
       <c r="G183" t="s">
         <v>3</v>
@@ -8103,27 +8199,27 @@
         <v>7</v>
       </c>
       <c r="K183" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="184" spans="1:11">
       <c r="A184" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B184">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="C184">
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E184" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F184">
-        <v>6470</v>
+        <v>-405</v>
       </c>
       <c r="G184" t="s">
         <v>3</v>
@@ -8135,24 +8231,27 @@
         <v>7</v>
       </c>
       <c r="K184" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="185" spans="1:11">
       <c r="A185" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B185">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C185">
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E185" t="s">
-        <v>37</v>
+        <v>14</v>
+      </c>
+      <c r="F185">
+        <v>-640</v>
       </c>
       <c r="G185" t="s">
         <v>3</v>
@@ -8164,27 +8263,27 @@
         <v>7</v>
       </c>
       <c r="K185" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B186">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C186">
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E186" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="F186">
-        <v>-87</v>
+        <v>-437</v>
       </c>
       <c r="G186" t="s">
         <v>3</v>
@@ -8196,27 +8295,27 @@
         <v>7</v>
       </c>
       <c r="K186" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="187" spans="1:11">
       <c r="A187" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B187">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D187" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E187" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="F187">
-        <v>-72</v>
+        <v>-217</v>
       </c>
       <c r="G187" t="s">
         <v>3</v>
@@ -8228,24 +8327,27 @@
         <v>7</v>
       </c>
       <c r="K187" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="188" spans="1:11">
       <c r="A188" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B188">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="E188" t="s">
-        <v>40</v>
+        <v>14</v>
+      </c>
+      <c r="F188">
+        <v>-207</v>
       </c>
       <c r="G188" t="s">
         <v>3</v>
@@ -8257,23 +8359,26 @@
         <v>7</v>
       </c>
       <c r="K188" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B189">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C189">
         <v>0</v>
       </c>
       <c r="D189" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E189" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189">
         <v>37</v>
       </c>
       <c r="G189" t="s">
@@ -8286,27 +8391,24 @@
         <v>7</v>
       </c>
       <c r="K189" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B190">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C190">
         <v>0</v>
       </c>
       <c r="D190" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E190" t="s">
-        <v>38</v>
-      </c>
-      <c r="F190">
-        <v>7513</v>
+        <v>13</v>
       </c>
       <c r="G190" t="s">
         <v>3</v>
@@ -8318,24 +8420,24 @@
         <v>7</v>
       </c>
       <c r="K190" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B191">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C191">
         <v>0</v>
       </c>
       <c r="D191" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E191" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G191" t="s">
         <v>3</v>
@@ -8347,27 +8449,24 @@
         <v>7</v>
       </c>
       <c r="K191" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="192" spans="1:11">
       <c r="A192" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B192">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C192">
         <v>0</v>
       </c>
       <c r="D192" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="E192" t="s">
-        <v>40</v>
-      </c>
-      <c r="F192">
-        <v>6386</v>
+        <v>15</v>
       </c>
       <c r="G192" t="s">
         <v>3</v>
@@ -8379,24 +8478,27 @@
         <v>7</v>
       </c>
       <c r="K192" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="193" spans="1:11">
       <c r="A193" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B193">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E193" t="s">
-        <v>37</v>
+        <v>13</v>
+      </c>
+      <c r="F193">
+        <v>80</v>
       </c>
       <c r="G193" t="s">
         <v>3</v>
@@ -8408,27 +8510,27 @@
         <v>7</v>
       </c>
       <c r="K193" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="194" spans="1:11">
       <c r="A194" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B194">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E194" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F194">
-        <v>13420</v>
+        <v>77</v>
       </c>
       <c r="G194" t="s">
         <v>3</v>
@@ -8440,24 +8542,27 @@
         <v>7</v>
       </c>
       <c r="K194" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="195" spans="1:11">
       <c r="A195" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B195">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C195">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E195" t="s">
-        <v>39</v>
+        <v>15</v>
+      </c>
+      <c r="F195">
+        <v>78</v>
       </c>
       <c r="G195" t="s">
         <v>3</v>
@@ -8469,27 +8574,27 @@
         <v>7</v>
       </c>
       <c r="K195" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="196" spans="1:11">
       <c r="A196" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="B196">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C196">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E196" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="F196">
-        <v>12368</v>
+        <v>-210</v>
       </c>
       <c r="G196" t="s">
         <v>3</v>
@@ -8501,7 +8606,7 @@
         <v>7</v>
       </c>
       <c r="K196" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="197" spans="1:11">
@@ -8509,16 +8614,19 @@
         <v>74</v>
       </c>
       <c r="B197">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E197" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="F197">
+        <v>-205</v>
       </c>
       <c r="G197" t="s">
         <v>3</v>
@@ -8538,16 +8646,19 @@
         <v>74</v>
       </c>
       <c r="B198">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E198" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F198">
+        <v>-199</v>
       </c>
       <c r="G198" t="s">
         <v>3</v>
@@ -8567,16 +8678,19 @@
         <v>74</v>
       </c>
       <c r="B199">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="E199" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="F199">
+        <v>-175</v>
       </c>
       <c r="G199" t="s">
         <v>3</v>
@@ -8596,19 +8710,19 @@
         <v>74</v>
       </c>
       <c r="B200">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E200" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F200">
-        <v>802</v>
+        <v>-196</v>
       </c>
       <c r="G200" t="s">
         <v>3</v>
@@ -8628,19 +8742,19 @@
         <v>74</v>
       </c>
       <c r="B201">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="C201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E201" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F201">
-        <v>1273</v>
+        <v>-234</v>
       </c>
       <c r="G201" t="s">
         <v>3</v>
@@ -8660,19 +8774,19 @@
         <v>74</v>
       </c>
       <c r="B202">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="C202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E202" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F202">
-        <v>1121</v>
+        <v>-1295</v>
       </c>
       <c r="G202" t="s">
         <v>3</v>
@@ -8692,16 +8806,19 @@
         <v>74</v>
       </c>
       <c r="B203">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E203" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="F203">
+        <v>-1300</v>
       </c>
       <c r="G203" t="s">
         <v>3</v>
@@ -8721,16 +8838,19 @@
         <v>74</v>
       </c>
       <c r="B204">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="E204" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F204">
+        <v>-2508</v>
       </c>
       <c r="G204" t="s">
         <v>3</v>
@@ -8750,16 +8870,19 @@
         <v>74</v>
       </c>
       <c r="B205">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C205">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D205" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E205" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="F205">
+        <v>-1600</v>
       </c>
       <c r="G205" t="s">
         <v>3</v>
@@ -8779,16 +8902,19 @@
         <v>74</v>
       </c>
       <c r="B206">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D206" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E206" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="F206">
+        <v>-1624</v>
       </c>
       <c r="G206" t="s">
         <v>3</v>
@@ -8808,16 +8934,19 @@
         <v>74</v>
       </c>
       <c r="B207">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C207">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D207" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="E207" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F207">
+        <v>-2863</v>
       </c>
       <c r="G207" t="s">
         <v>3</v>
@@ -8837,16 +8966,19 @@
         <v>74</v>
       </c>
       <c r="B208">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D208" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="E208" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="F208">
+        <v>-41</v>
       </c>
       <c r="G208" t="s">
         <v>3</v>
@@ -8866,19 +8998,19 @@
         <v>74</v>
       </c>
       <c r="B209">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C209">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D209" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E209" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F209">
-        <v>536</v>
+        <v>-8</v>
       </c>
       <c r="G209" t="s">
         <v>3</v>
@@ -8898,19 +9030,19 @@
         <v>74</v>
       </c>
       <c r="B210">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D210" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E210" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F210">
-        <v>404</v>
+        <v>-17</v>
       </c>
       <c r="G210" t="s">
         <v>3</v>
@@ -8930,19 +9062,19 @@
         <v>74</v>
       </c>
       <c r="B211">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="C211">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D211" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E211" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F211">
-        <v>356</v>
+        <v>-308</v>
       </c>
       <c r="G211" t="s">
         <v>3</v>
@@ -8962,19 +9094,19 @@
         <v>74</v>
       </c>
       <c r="B212">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C212">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E212" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F212">
-        <v>548</v>
+        <v>476</v>
       </c>
       <c r="G212" t="s">
         <v>3</v>
@@ -8994,19 +9126,19 @@
         <v>74</v>
       </c>
       <c r="B213">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C213">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E213" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F213">
-        <v>584</v>
+        <v>-764</v>
       </c>
       <c r="G213" t="s">
         <v>3</v>
@@ -9026,19 +9158,19 @@
         <v>74</v>
       </c>
       <c r="B214">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C214">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D214" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="E214" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F214">
-        <v>642</v>
+        <v>2732</v>
       </c>
       <c r="G214" t="s">
         <v>3</v>
@@ -9058,16 +9190,19 @@
         <v>74</v>
       </c>
       <c r="B215">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C215">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D215" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E215" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="F215">
+        <v>2424</v>
       </c>
       <c r="G215" t="s">
         <v>3</v>
@@ -9087,16 +9222,19 @@
         <v>74</v>
       </c>
       <c r="B216">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D216" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="E216" t="s">
-        <v>77</v>
+        <v>15</v>
+      </c>
+      <c r="F216">
+        <v>2900</v>
       </c>
       <c r="G216" t="s">
         <v>3</v>
@@ -9116,16 +9254,19 @@
         <v>74</v>
       </c>
       <c r="B217">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C217">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D217" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E217" t="s">
-        <v>78</v>
+        <v>13</v>
+      </c>
+      <c r="F217">
+        <v>2424</v>
       </c>
       <c r="G217" t="s">
         <v>3</v>
@@ -9145,19 +9286,19 @@
         <v>74</v>
       </c>
       <c r="B218">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C218">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D218" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E218" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F218">
-        <v>-34</v>
+        <v>2900</v>
       </c>
       <c r="G218" t="s">
         <v>3</v>
@@ -9177,19 +9318,19 @@
         <v>74</v>
       </c>
       <c r="B219">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="C219">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D219" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="E219" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F219">
-        <v>119</v>
+        <v>2136</v>
       </c>
       <c r="G219" t="s">
         <v>3</v>
@@ -9209,19 +9350,16 @@
         <v>74</v>
       </c>
       <c r="B220">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="C220">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D220" t="s">
-        <v>45</v>
+        <v>97</v>
       </c>
       <c r="E220" t="s">
-        <v>78</v>
-      </c>
-      <c r="F220">
-        <v>-115</v>
+        <v>13</v>
       </c>
       <c r="G220" t="s">
         <v>3</v>
@@ -9241,19 +9379,16 @@
         <v>74</v>
       </c>
       <c r="B221">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D221" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E221" t="s">
-        <v>76</v>
-      </c>
-      <c r="F221">
-        <v>-103</v>
+        <v>14</v>
       </c>
       <c r="G221" t="s">
         <v>3</v>
@@ -9273,19 +9408,16 @@
         <v>74</v>
       </c>
       <c r="B222">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C222">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D222" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E222" t="s">
-        <v>77</v>
-      </c>
-      <c r="F222">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="G222" t="s">
         <v>3</v>
@@ -9305,19 +9437,19 @@
         <v>74</v>
       </c>
       <c r="B223">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="C223">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E223" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F223">
-        <v>40</v>
+        <v>-583</v>
       </c>
       <c r="G223" t="s">
         <v>3</v>
@@ -9337,19 +9469,19 @@
         <v>74</v>
       </c>
       <c r="B224">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E224" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F224">
-        <v>144</v>
+        <v>-300</v>
       </c>
       <c r="G224" t="s">
         <v>3</v>
@@ -9369,19 +9501,19 @@
         <v>74</v>
       </c>
       <c r="B225">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C225">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="E225" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F225">
-        <v>-208</v>
+        <v>-404</v>
       </c>
       <c r="G225" t="s">
         <v>3</v>
@@ -9401,19 +9533,19 @@
         <v>74</v>
       </c>
       <c r="B226">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C226">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E226" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F226">
-        <v>190</v>
+        <v>-56</v>
       </c>
       <c r="G226" t="s">
         <v>3</v>
@@ -9433,19 +9565,19 @@
         <v>74</v>
       </c>
       <c r="B227">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C227">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E227" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F227">
-        <v>-221</v>
+        <v>-56</v>
       </c>
       <c r="G227" t="s">
         <v>3</v>
@@ -9465,19 +9597,19 @@
         <v>74</v>
       </c>
       <c r="B228">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C228">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E228" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="F228">
-        <v>82</v>
+        <v>-56</v>
       </c>
       <c r="G228" t="s">
         <v>3</v>
@@ -9497,19 +9629,16 @@
         <v>74</v>
       </c>
       <c r="B229">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="E229" t="s">
-        <v>78</v>
-      </c>
-      <c r="F229">
-        <v>-41</v>
+        <v>13</v>
       </c>
       <c r="G229" t="s">
         <v>3</v>
@@ -9529,19 +9658,16 @@
         <v>74</v>
       </c>
       <c r="B230">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E230" t="s">
-        <v>76</v>
-      </c>
-      <c r="F230">
-        <v>-122</v>
+        <v>14</v>
       </c>
       <c r="G230" t="s">
         <v>3</v>
@@ -9561,19 +9687,16 @@
         <v>74</v>
       </c>
       <c r="B231">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C231">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E231" t="s">
-        <v>77</v>
-      </c>
-      <c r="F231">
-        <v>-87</v>
+        <v>15</v>
       </c>
       <c r="G231" t="s">
         <v>3</v>
@@ -9593,19 +9716,19 @@
         <v>74</v>
       </c>
       <c r="B232">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="E232" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="F232">
-        <v>-114</v>
+        <v>-3</v>
       </c>
       <c r="G232" t="s">
         <v>3</v>
@@ -9625,19 +9748,19 @@
         <v>74</v>
       </c>
       <c r="B233">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E233" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F233">
-        <v>1550</v>
+        <v>-25</v>
       </c>
       <c r="G233" t="s">
         <v>3</v>
@@ -9657,19 +9780,16 @@
         <v>74</v>
       </c>
       <c r="B234">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C234">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="E234" t="s">
-        <v>77</v>
-      </c>
-      <c r="F234">
-        <v>2315</v>
+        <v>15</v>
       </c>
       <c r="G234" t="s">
         <v>3</v>
@@ -9689,19 +9809,16 @@
         <v>74</v>
       </c>
       <c r="B235">
+        <v>34</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>102</v>
+      </c>
+      <c r="E235" t="s">
         <v>13</v>
-      </c>
-      <c r="C235">
-        <v>0</v>
-      </c>
-      <c r="D235" t="s">
-        <v>86</v>
-      </c>
-      <c r="E235" t="s">
-        <v>78</v>
-      </c>
-      <c r="F235">
-        <v>2079</v>
       </c>
       <c r="G235" t="s">
         <v>3</v>
@@ -9721,16 +9838,16 @@
         <v>74</v>
       </c>
       <c r="B236">
+        <v>34</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236" t="s">
+        <v>102</v>
+      </c>
+      <c r="E236" t="s">
         <v>14</v>
-      </c>
-      <c r="C236">
-        <v>0</v>
-      </c>
-      <c r="D236" t="s">
-        <v>87</v>
-      </c>
-      <c r="E236" t="s">
-        <v>76</v>
       </c>
       <c r="G236" t="s">
         <v>3</v>
@@ -9750,16 +9867,16 @@
         <v>74</v>
       </c>
       <c r="B237">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C237">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D237" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="E237" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="G237" t="s">
         <v>3</v>
@@ -9771,1829 +9888,6 @@
         <v>7</v>
       </c>
       <c r="K237" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11">
-      <c r="A238" t="s">
-        <v>74</v>
-      </c>
-      <c r="B238">
-        <v>14</v>
-      </c>
-      <c r="C238">
-        <v>0</v>
-      </c>
-      <c r="D238" t="s">
-        <v>87</v>
-      </c>
-      <c r="E238" t="s">
-        <v>78</v>
-      </c>
-      <c r="G238" t="s">
-        <v>3</v>
-      </c>
-      <c r="H238" t="s">
-        <v>5</v>
-      </c>
-      <c r="J238" t="s">
-        <v>7</v>
-      </c>
-      <c r="K238" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="239" spans="1:11">
-      <c r="A239" t="s">
-        <v>74</v>
-      </c>
-      <c r="B239">
-        <v>15</v>
-      </c>
-      <c r="C239">
-        <v>1</v>
-      </c>
-      <c r="D239" t="s">
-        <v>88</v>
-      </c>
-      <c r="E239" t="s">
-        <v>76</v>
-      </c>
-      <c r="F239">
-        <v>-207</v>
-      </c>
-      <c r="G239" t="s">
-        <v>3</v>
-      </c>
-      <c r="H239" t="s">
-        <v>5</v>
-      </c>
-      <c r="J239" t="s">
-        <v>7</v>
-      </c>
-      <c r="K239" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11">
-      <c r="A240" t="s">
-        <v>74</v>
-      </c>
-      <c r="B240">
-        <v>15</v>
-      </c>
-      <c r="C240">
-        <v>1</v>
-      </c>
-      <c r="D240" t="s">
-        <v>88</v>
-      </c>
-      <c r="E240" t="s">
-        <v>77</v>
-      </c>
-      <c r="F240">
-        <v>-199</v>
-      </c>
-      <c r="G240" t="s">
-        <v>3</v>
-      </c>
-      <c r="H240" t="s">
-        <v>5</v>
-      </c>
-      <c r="J240" t="s">
-        <v>7</v>
-      </c>
-      <c r="K240" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11">
-      <c r="A241" t="s">
-        <v>74</v>
-      </c>
-      <c r="B241">
-        <v>15</v>
-      </c>
-      <c r="C241">
-        <v>1</v>
-      </c>
-      <c r="D241" t="s">
-        <v>88</v>
-      </c>
-      <c r="E241" t="s">
-        <v>78</v>
-      </c>
-      <c r="F241">
-        <v>-221</v>
-      </c>
-      <c r="G241" t="s">
-        <v>3</v>
-      </c>
-      <c r="H241" t="s">
-        <v>5</v>
-      </c>
-      <c r="J241" t="s">
-        <v>7</v>
-      </c>
-      <c r="K241" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11">
-      <c r="A242" t="s">
-        <v>74</v>
-      </c>
-      <c r="B242">
-        <v>16</v>
-      </c>
-      <c r="C242">
-        <v>1</v>
-      </c>
-      <c r="D242" t="s">
-        <v>89</v>
-      </c>
-      <c r="E242" t="s">
-        <v>76</v>
-      </c>
-      <c r="F242">
-        <v>395</v>
-      </c>
-      <c r="G242" t="s">
-        <v>3</v>
-      </c>
-      <c r="H242" t="s">
-        <v>5</v>
-      </c>
-      <c r="J242" t="s">
-        <v>7</v>
-      </c>
-      <c r="K242" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11">
-      <c r="A243" t="s">
-        <v>74</v>
-      </c>
-      <c r="B243">
-        <v>16</v>
-      </c>
-      <c r="C243">
-        <v>1</v>
-      </c>
-      <c r="D243" t="s">
-        <v>89</v>
-      </c>
-      <c r="E243" t="s">
-        <v>77</v>
-      </c>
-      <c r="F243">
-        <v>632</v>
-      </c>
-      <c r="G243" t="s">
-        <v>3</v>
-      </c>
-      <c r="H243" t="s">
-        <v>5</v>
-      </c>
-      <c r="J243" t="s">
-        <v>7</v>
-      </c>
-      <c r="K243" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11">
-      <c r="A244" t="s">
-        <v>74</v>
-      </c>
-      <c r="B244">
-        <v>16</v>
-      </c>
-      <c r="C244">
-        <v>1</v>
-      </c>
-      <c r="D244" t="s">
-        <v>89</v>
-      </c>
-      <c r="E244" t="s">
-        <v>78</v>
-      </c>
-      <c r="F244">
-        <v>695</v>
-      </c>
-      <c r="G244" t="s">
-        <v>3</v>
-      </c>
-      <c r="H244" t="s">
-        <v>5</v>
-      </c>
-      <c r="J244" t="s">
-        <v>7</v>
-      </c>
-      <c r="K244" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11">
-      <c r="A245" t="s">
-        <v>74</v>
-      </c>
-      <c r="B245">
-        <v>17</v>
-      </c>
-      <c r="C245">
-        <v>1</v>
-      </c>
-      <c r="D245" t="s">
-        <v>90</v>
-      </c>
-      <c r="E245" t="s">
-        <v>76</v>
-      </c>
-      <c r="F245">
-        <v>-405</v>
-      </c>
-      <c r="G245" t="s">
-        <v>3</v>
-      </c>
-      <c r="H245" t="s">
-        <v>5</v>
-      </c>
-      <c r="J245" t="s">
-        <v>7</v>
-      </c>
-      <c r="K245" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11">
-      <c r="A246" t="s">
-        <v>74</v>
-      </c>
-      <c r="B246">
-        <v>17</v>
-      </c>
-      <c r="C246">
-        <v>1</v>
-      </c>
-      <c r="D246" t="s">
-        <v>90</v>
-      </c>
-      <c r="E246" t="s">
-        <v>77</v>
-      </c>
-      <c r="F246">
-        <v>-640</v>
-      </c>
-      <c r="G246" t="s">
-        <v>3</v>
-      </c>
-      <c r="H246" t="s">
-        <v>5</v>
-      </c>
-      <c r="J246" t="s">
-        <v>7</v>
-      </c>
-      <c r="K246" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11">
-      <c r="A247" t="s">
-        <v>74</v>
-      </c>
-      <c r="B247">
-        <v>17</v>
-      </c>
-      <c r="C247">
-        <v>1</v>
-      </c>
-      <c r="D247" t="s">
-        <v>90</v>
-      </c>
-      <c r="E247" t="s">
-        <v>78</v>
-      </c>
-      <c r="F247">
-        <v>-437</v>
-      </c>
-      <c r="G247" t="s">
-        <v>3</v>
-      </c>
-      <c r="H247" t="s">
-        <v>5</v>
-      </c>
-      <c r="J247" t="s">
-        <v>7</v>
-      </c>
-      <c r="K247" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11">
-      <c r="A248" t="s">
-        <v>74</v>
-      </c>
-      <c r="B248">
-        <v>18</v>
-      </c>
-      <c r="C248">
-        <v>0</v>
-      </c>
-      <c r="D248" t="s">
-        <v>91</v>
-      </c>
-      <c r="E248" t="s">
-        <v>76</v>
-      </c>
-      <c r="F248">
-        <v>-217</v>
-      </c>
-      <c r="G248" t="s">
-        <v>3</v>
-      </c>
-      <c r="H248" t="s">
-        <v>5</v>
-      </c>
-      <c r="J248" t="s">
-        <v>7</v>
-      </c>
-      <c r="K248" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11">
-      <c r="A249" t="s">
-        <v>74</v>
-      </c>
-      <c r="B249">
-        <v>18</v>
-      </c>
-      <c r="C249">
-        <v>0</v>
-      </c>
-      <c r="D249" t="s">
-        <v>91</v>
-      </c>
-      <c r="E249" t="s">
-        <v>77</v>
-      </c>
-      <c r="F249">
-        <v>-207</v>
-      </c>
-      <c r="G249" t="s">
-        <v>3</v>
-      </c>
-      <c r="H249" t="s">
-        <v>5</v>
-      </c>
-      <c r="J249" t="s">
-        <v>7</v>
-      </c>
-      <c r="K249" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11">
-      <c r="A250" t="s">
-        <v>74</v>
-      </c>
-      <c r="B250">
-        <v>18</v>
-      </c>
-      <c r="C250">
-        <v>0</v>
-      </c>
-      <c r="D250" t="s">
-        <v>91</v>
-      </c>
-      <c r="E250" t="s">
-        <v>78</v>
-      </c>
-      <c r="F250">
-        <v>37</v>
-      </c>
-      <c r="G250" t="s">
-        <v>3</v>
-      </c>
-      <c r="H250" t="s">
-        <v>5</v>
-      </c>
-      <c r="J250" t="s">
-        <v>7</v>
-      </c>
-      <c r="K250" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11">
-      <c r="A251" t="s">
-        <v>74</v>
-      </c>
-      <c r="B251">
-        <v>19</v>
-      </c>
-      <c r="C251">
-        <v>0</v>
-      </c>
-      <c r="D251" t="s">
-        <v>92</v>
-      </c>
-      <c r="E251" t="s">
-        <v>76</v>
-      </c>
-      <c r="G251" t="s">
-        <v>3</v>
-      </c>
-      <c r="H251" t="s">
-        <v>5</v>
-      </c>
-      <c r="J251" t="s">
-        <v>7</v>
-      </c>
-      <c r="K251" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11">
-      <c r="A252" t="s">
-        <v>74</v>
-      </c>
-      <c r="B252">
-        <v>19</v>
-      </c>
-      <c r="C252">
-        <v>0</v>
-      </c>
-      <c r="D252" t="s">
-        <v>92</v>
-      </c>
-      <c r="E252" t="s">
-        <v>77</v>
-      </c>
-      <c r="G252" t="s">
-        <v>3</v>
-      </c>
-      <c r="H252" t="s">
-        <v>5</v>
-      </c>
-      <c r="J252" t="s">
-        <v>7</v>
-      </c>
-      <c r="K252" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11">
-      <c r="A253" t="s">
-        <v>74</v>
-      </c>
-      <c r="B253">
-        <v>19</v>
-      </c>
-      <c r="C253">
-        <v>0</v>
-      </c>
-      <c r="D253" t="s">
-        <v>92</v>
-      </c>
-      <c r="E253" t="s">
-        <v>78</v>
-      </c>
-      <c r="G253" t="s">
-        <v>3</v>
-      </c>
-      <c r="H253" t="s">
-        <v>5</v>
-      </c>
-      <c r="J253" t="s">
-        <v>7</v>
-      </c>
-      <c r="K253" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11">
-      <c r="A254" t="s">
-        <v>74</v>
-      </c>
-      <c r="B254">
-        <v>20</v>
-      </c>
-      <c r="C254">
-        <v>1</v>
-      </c>
-      <c r="D254" t="s">
-        <v>93</v>
-      </c>
-      <c r="E254" t="s">
-        <v>76</v>
-      </c>
-      <c r="F254">
-        <v>80</v>
-      </c>
-      <c r="G254" t="s">
-        <v>3</v>
-      </c>
-      <c r="H254" t="s">
-        <v>5</v>
-      </c>
-      <c r="J254" t="s">
-        <v>7</v>
-      </c>
-      <c r="K254" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11">
-      <c r="A255" t="s">
-        <v>74</v>
-      </c>
-      <c r="B255">
-        <v>20</v>
-      </c>
-      <c r="C255">
-        <v>1</v>
-      </c>
-      <c r="D255" t="s">
-        <v>93</v>
-      </c>
-      <c r="E255" t="s">
-        <v>77</v>
-      </c>
-      <c r="F255">
-        <v>77</v>
-      </c>
-      <c r="G255" t="s">
-        <v>3</v>
-      </c>
-      <c r="H255" t="s">
-        <v>5</v>
-      </c>
-      <c r="J255" t="s">
-        <v>7</v>
-      </c>
-      <c r="K255" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11">
-      <c r="A256" t="s">
-        <v>74</v>
-      </c>
-      <c r="B256">
-        <v>20</v>
-      </c>
-      <c r="C256">
-        <v>1</v>
-      </c>
-      <c r="D256" t="s">
-        <v>93</v>
-      </c>
-      <c r="E256" t="s">
-        <v>78</v>
-      </c>
-      <c r="F256">
-        <v>78</v>
-      </c>
-      <c r="G256" t="s">
-        <v>3</v>
-      </c>
-      <c r="H256" t="s">
-        <v>5</v>
-      </c>
-      <c r="J256" t="s">
-        <v>7</v>
-      </c>
-      <c r="K256" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11">
-      <c r="A257" t="s">
-        <v>74</v>
-      </c>
-      <c r="B257">
-        <v>21</v>
-      </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257" t="s">
-        <v>94</v>
-      </c>
-      <c r="E257" t="s">
-        <v>76</v>
-      </c>
-      <c r="F257">
-        <v>-210</v>
-      </c>
-      <c r="G257" t="s">
-        <v>3</v>
-      </c>
-      <c r="H257" t="s">
-        <v>5</v>
-      </c>
-      <c r="J257" t="s">
-        <v>7</v>
-      </c>
-      <c r="K257" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11">
-      <c r="A258" t="s">
-        <v>74</v>
-      </c>
-      <c r="B258">
-        <v>21</v>
-      </c>
-      <c r="C258">
-        <v>1</v>
-      </c>
-      <c r="D258" t="s">
-        <v>94</v>
-      </c>
-      <c r="E258" t="s">
-        <v>77</v>
-      </c>
-      <c r="F258">
-        <v>-205</v>
-      </c>
-      <c r="G258" t="s">
-        <v>3</v>
-      </c>
-      <c r="H258" t="s">
-        <v>5</v>
-      </c>
-      <c r="J258" t="s">
-        <v>7</v>
-      </c>
-      <c r="K258" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11">
-      <c r="A259" t="s">
-        <v>74</v>
-      </c>
-      <c r="B259">
-        <v>21</v>
-      </c>
-      <c r="C259">
-        <v>1</v>
-      </c>
-      <c r="D259" t="s">
-        <v>94</v>
-      </c>
-      <c r="E259" t="s">
-        <v>78</v>
-      </c>
-      <c r="F259">
-        <v>-199</v>
-      </c>
-      <c r="G259" t="s">
-        <v>3</v>
-      </c>
-      <c r="H259" t="s">
-        <v>5</v>
-      </c>
-      <c r="J259" t="s">
-        <v>7</v>
-      </c>
-      <c r="K259" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11">
-      <c r="A260" t="s">
-        <v>74</v>
-      </c>
-      <c r="B260">
-        <v>22</v>
-      </c>
-      <c r="C260">
-        <v>1</v>
-      </c>
-      <c r="D260" t="s">
-        <v>95</v>
-      </c>
-      <c r="E260" t="s">
-        <v>76</v>
-      </c>
-      <c r="F260">
-        <v>-175</v>
-      </c>
-      <c r="G260" t="s">
-        <v>3</v>
-      </c>
-      <c r="H260" t="s">
-        <v>5</v>
-      </c>
-      <c r="J260" t="s">
-        <v>7</v>
-      </c>
-      <c r="K260" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11">
-      <c r="A261" t="s">
-        <v>74</v>
-      </c>
-      <c r="B261">
-        <v>22</v>
-      </c>
-      <c r="C261">
-        <v>1</v>
-      </c>
-      <c r="D261" t="s">
-        <v>95</v>
-      </c>
-      <c r="E261" t="s">
-        <v>77</v>
-      </c>
-      <c r="F261">
-        <v>-196</v>
-      </c>
-      <c r="G261" t="s">
-        <v>3</v>
-      </c>
-      <c r="H261" t="s">
-        <v>5</v>
-      </c>
-      <c r="J261" t="s">
-        <v>7</v>
-      </c>
-      <c r="K261" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11">
-      <c r="A262" t="s">
-        <v>74</v>
-      </c>
-      <c r="B262">
-        <v>22</v>
-      </c>
-      <c r="C262">
-        <v>1</v>
-      </c>
-      <c r="D262" t="s">
-        <v>95</v>
-      </c>
-      <c r="E262" t="s">
-        <v>78</v>
-      </c>
-      <c r="F262">
-        <v>-234</v>
-      </c>
-      <c r="G262" t="s">
-        <v>3</v>
-      </c>
-      <c r="H262" t="s">
-        <v>5</v>
-      </c>
-      <c r="J262" t="s">
-        <v>7</v>
-      </c>
-      <c r="K262" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11">
-      <c r="A263" t="s">
-        <v>74</v>
-      </c>
-      <c r="B263">
-        <v>23</v>
-      </c>
-      <c r="C263">
-        <v>1</v>
-      </c>
-      <c r="D263" t="s">
-        <v>96</v>
-      </c>
-      <c r="E263" t="s">
-        <v>76</v>
-      </c>
-      <c r="F263">
-        <v>-1295</v>
-      </c>
-      <c r="G263" t="s">
-        <v>3</v>
-      </c>
-      <c r="H263" t="s">
-        <v>5</v>
-      </c>
-      <c r="J263" t="s">
-        <v>7</v>
-      </c>
-      <c r="K263" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11">
-      <c r="A264" t="s">
-        <v>74</v>
-      </c>
-      <c r="B264">
-        <v>23</v>
-      </c>
-      <c r="C264">
-        <v>1</v>
-      </c>
-      <c r="D264" t="s">
-        <v>96</v>
-      </c>
-      <c r="E264" t="s">
-        <v>77</v>
-      </c>
-      <c r="F264">
-        <v>-1300</v>
-      </c>
-      <c r="G264" t="s">
-        <v>3</v>
-      </c>
-      <c r="H264" t="s">
-        <v>5</v>
-      </c>
-      <c r="J264" t="s">
-        <v>7</v>
-      </c>
-      <c r="K264" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11">
-      <c r="A265" t="s">
-        <v>74</v>
-      </c>
-      <c r="B265">
-        <v>23</v>
-      </c>
-      <c r="C265">
-        <v>1</v>
-      </c>
-      <c r="D265" t="s">
-        <v>96</v>
-      </c>
-      <c r="E265" t="s">
-        <v>78</v>
-      </c>
-      <c r="F265">
-        <v>-2508</v>
-      </c>
-      <c r="G265" t="s">
-        <v>3</v>
-      </c>
-      <c r="H265" t="s">
-        <v>5</v>
-      </c>
-      <c r="J265" t="s">
-        <v>7</v>
-      </c>
-      <c r="K265" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11">
-      <c r="A266" t="s">
-        <v>74</v>
-      </c>
-      <c r="B266">
-        <v>24</v>
-      </c>
-      <c r="C266">
-        <v>0</v>
-      </c>
-      <c r="D266" t="s">
-        <v>97</v>
-      </c>
-      <c r="E266" t="s">
-        <v>76</v>
-      </c>
-      <c r="F266">
-        <v>-1600</v>
-      </c>
-      <c r="G266" t="s">
-        <v>3</v>
-      </c>
-      <c r="H266" t="s">
-        <v>5</v>
-      </c>
-      <c r="J266" t="s">
-        <v>7</v>
-      </c>
-      <c r="K266" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11">
-      <c r="A267" t="s">
-        <v>74</v>
-      </c>
-      <c r="B267">
-        <v>24</v>
-      </c>
-      <c r="C267">
-        <v>0</v>
-      </c>
-      <c r="D267" t="s">
-        <v>97</v>
-      </c>
-      <c r="E267" t="s">
-        <v>77</v>
-      </c>
-      <c r="F267">
-        <v>-1624</v>
-      </c>
-      <c r="G267" t="s">
-        <v>3</v>
-      </c>
-      <c r="H267" t="s">
-        <v>5</v>
-      </c>
-      <c r="J267" t="s">
-        <v>7</v>
-      </c>
-      <c r="K267" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11">
-      <c r="A268" t="s">
-        <v>74</v>
-      </c>
-      <c r="B268">
-        <v>24</v>
-      </c>
-      <c r="C268">
-        <v>0</v>
-      </c>
-      <c r="D268" t="s">
-        <v>97</v>
-      </c>
-      <c r="E268" t="s">
-        <v>78</v>
-      </c>
-      <c r="F268">
-        <v>-2863</v>
-      </c>
-      <c r="G268" t="s">
-        <v>3</v>
-      </c>
-      <c r="H268" t="s">
-        <v>5</v>
-      </c>
-      <c r="J268" t="s">
-        <v>7</v>
-      </c>
-      <c r="K268" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11">
-      <c r="A269" t="s">
-        <v>74</v>
-      </c>
-      <c r="B269">
-        <v>25</v>
-      </c>
-      <c r="C269">
-        <v>0</v>
-      </c>
-      <c r="D269" t="s">
-        <v>98</v>
-      </c>
-      <c r="E269" t="s">
-        <v>76</v>
-      </c>
-      <c r="F269">
-        <v>-41</v>
-      </c>
-      <c r="G269" t="s">
-        <v>3</v>
-      </c>
-      <c r="H269" t="s">
-        <v>5</v>
-      </c>
-      <c r="J269" t="s">
-        <v>7</v>
-      </c>
-      <c r="K269" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11">
-      <c r="A270" t="s">
-        <v>74</v>
-      </c>
-      <c r="B270">
-        <v>25</v>
-      </c>
-      <c r="C270">
-        <v>0</v>
-      </c>
-      <c r="D270" t="s">
-        <v>98</v>
-      </c>
-      <c r="E270" t="s">
-        <v>77</v>
-      </c>
-      <c r="F270">
-        <v>-8</v>
-      </c>
-      <c r="G270" t="s">
-        <v>3</v>
-      </c>
-      <c r="H270" t="s">
-        <v>5</v>
-      </c>
-      <c r="J270" t="s">
-        <v>7</v>
-      </c>
-      <c r="K270" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11">
-      <c r="A271" t="s">
-        <v>74</v>
-      </c>
-      <c r="B271">
-        <v>25</v>
-      </c>
-      <c r="C271">
-        <v>0</v>
-      </c>
-      <c r="D271" t="s">
-        <v>98</v>
-      </c>
-      <c r="E271" t="s">
-        <v>78</v>
-      </c>
-      <c r="F271">
-        <v>-17</v>
-      </c>
-      <c r="G271" t="s">
-        <v>3</v>
-      </c>
-      <c r="H271" t="s">
-        <v>5</v>
-      </c>
-      <c r="J271" t="s">
-        <v>7</v>
-      </c>
-      <c r="K271" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11">
-      <c r="A272" t="s">
-        <v>74</v>
-      </c>
-      <c r="B272">
-        <v>26</v>
-      </c>
-      <c r="C272">
-        <v>0</v>
-      </c>
-      <c r="D272" t="s">
-        <v>99</v>
-      </c>
-      <c r="E272" t="s">
-        <v>76</v>
-      </c>
-      <c r="F272">
-        <v>-308</v>
-      </c>
-      <c r="G272" t="s">
-        <v>3</v>
-      </c>
-      <c r="H272" t="s">
-        <v>5</v>
-      </c>
-      <c r="J272" t="s">
-        <v>7</v>
-      </c>
-      <c r="K272" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11">
-      <c r="A273" t="s">
-        <v>74</v>
-      </c>
-      <c r="B273">
-        <v>26</v>
-      </c>
-      <c r="C273">
-        <v>0</v>
-      </c>
-      <c r="D273" t="s">
-        <v>99</v>
-      </c>
-      <c r="E273" t="s">
-        <v>77</v>
-      </c>
-      <c r="F273">
-        <v>476</v>
-      </c>
-      <c r="G273" t="s">
-        <v>3</v>
-      </c>
-      <c r="H273" t="s">
-        <v>5</v>
-      </c>
-      <c r="J273" t="s">
-        <v>7</v>
-      </c>
-      <c r="K273" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11">
-      <c r="A274" t="s">
-        <v>74</v>
-      </c>
-      <c r="B274">
-        <v>26</v>
-      </c>
-      <c r="C274">
-        <v>0</v>
-      </c>
-      <c r="D274" t="s">
-        <v>99</v>
-      </c>
-      <c r="E274" t="s">
-        <v>78</v>
-      </c>
-      <c r="F274">
-        <v>-764</v>
-      </c>
-      <c r="G274" t="s">
-        <v>3</v>
-      </c>
-      <c r="H274" t="s">
-        <v>5</v>
-      </c>
-      <c r="J274" t="s">
-        <v>7</v>
-      </c>
-      <c r="K274" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11">
-      <c r="A275" t="s">
-        <v>74</v>
-      </c>
-      <c r="B275">
-        <v>27</v>
-      </c>
-      <c r="C275">
-        <v>0</v>
-      </c>
-      <c r="D275" t="s">
-        <v>100</v>
-      </c>
-      <c r="E275" t="s">
-        <v>76</v>
-      </c>
-      <c r="F275">
-        <v>2732</v>
-      </c>
-      <c r="G275" t="s">
-        <v>3</v>
-      </c>
-      <c r="H275" t="s">
-        <v>5</v>
-      </c>
-      <c r="J275" t="s">
-        <v>7</v>
-      </c>
-      <c r="K275" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11">
-      <c r="A276" t="s">
-        <v>74</v>
-      </c>
-      <c r="B276">
-        <v>27</v>
-      </c>
-      <c r="C276">
-        <v>0</v>
-      </c>
-      <c r="D276" t="s">
-        <v>100</v>
-      </c>
-      <c r="E276" t="s">
-        <v>77</v>
-      </c>
-      <c r="F276">
-        <v>2424</v>
-      </c>
-      <c r="G276" t="s">
-        <v>3</v>
-      </c>
-      <c r="H276" t="s">
-        <v>5</v>
-      </c>
-      <c r="J276" t="s">
-        <v>7</v>
-      </c>
-      <c r="K276" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11">
-      <c r="A277" t="s">
-        <v>74</v>
-      </c>
-      <c r="B277">
-        <v>27</v>
-      </c>
-      <c r="C277">
-        <v>0</v>
-      </c>
-      <c r="D277" t="s">
-        <v>100</v>
-      </c>
-      <c r="E277" t="s">
-        <v>78</v>
-      </c>
-      <c r="F277">
-        <v>2900</v>
-      </c>
-      <c r="G277" t="s">
-        <v>3</v>
-      </c>
-      <c r="H277" t="s">
-        <v>5</v>
-      </c>
-      <c r="J277" t="s">
-        <v>7</v>
-      </c>
-      <c r="K277" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="278" spans="1:11">
-      <c r="A278" t="s">
-        <v>74</v>
-      </c>
-      <c r="B278">
-        <v>28</v>
-      </c>
-      <c r="C278">
-        <v>0</v>
-      </c>
-      <c r="D278" t="s">
-        <v>101</v>
-      </c>
-      <c r="E278" t="s">
-        <v>76</v>
-      </c>
-      <c r="F278">
-        <v>2424</v>
-      </c>
-      <c r="G278" t="s">
-        <v>3</v>
-      </c>
-      <c r="H278" t="s">
-        <v>5</v>
-      </c>
-      <c r="J278" t="s">
-        <v>7</v>
-      </c>
-      <c r="K278" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11">
-      <c r="A279" t="s">
-        <v>74</v>
-      </c>
-      <c r="B279">
-        <v>28</v>
-      </c>
-      <c r="C279">
-        <v>0</v>
-      </c>
-      <c r="D279" t="s">
-        <v>101</v>
-      </c>
-      <c r="E279" t="s">
-        <v>77</v>
-      </c>
-      <c r="F279">
-        <v>2900</v>
-      </c>
-      <c r="G279" t="s">
-        <v>3</v>
-      </c>
-      <c r="H279" t="s">
-        <v>5</v>
-      </c>
-      <c r="J279" t="s">
-        <v>7</v>
-      </c>
-      <c r="K279" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="280" spans="1:11">
-      <c r="A280" t="s">
-        <v>74</v>
-      </c>
-      <c r="B280">
-        <v>28</v>
-      </c>
-      <c r="C280">
-        <v>0</v>
-      </c>
-      <c r="D280" t="s">
-        <v>101</v>
-      </c>
-      <c r="E280" t="s">
-        <v>78</v>
-      </c>
-      <c r="F280">
-        <v>2136</v>
-      </c>
-      <c r="G280" t="s">
-        <v>3</v>
-      </c>
-      <c r="H280" t="s">
-        <v>5</v>
-      </c>
-      <c r="J280" t="s">
-        <v>7</v>
-      </c>
-      <c r="K280" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="281" spans="1:11">
-      <c r="A281" t="s">
-        <v>74</v>
-      </c>
-      <c r="B281">
-        <v>29</v>
-      </c>
-      <c r="C281">
-        <v>0</v>
-      </c>
-      <c r="D281" t="s">
-        <v>102</v>
-      </c>
-      <c r="E281" t="s">
-        <v>76</v>
-      </c>
-      <c r="G281" t="s">
-        <v>3</v>
-      </c>
-      <c r="H281" t="s">
-        <v>5</v>
-      </c>
-      <c r="J281" t="s">
-        <v>7</v>
-      </c>
-      <c r="K281" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11">
-      <c r="A282" t="s">
-        <v>74</v>
-      </c>
-      <c r="B282">
-        <v>29</v>
-      </c>
-      <c r="C282">
-        <v>0</v>
-      </c>
-      <c r="D282" t="s">
-        <v>102</v>
-      </c>
-      <c r="E282" t="s">
-        <v>77</v>
-      </c>
-      <c r="G282" t="s">
-        <v>3</v>
-      </c>
-      <c r="H282" t="s">
-        <v>5</v>
-      </c>
-      <c r="J282" t="s">
-        <v>7</v>
-      </c>
-      <c r="K282" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11">
-      <c r="A283" t="s">
-        <v>74</v>
-      </c>
-      <c r="B283">
-        <v>29</v>
-      </c>
-      <c r="C283">
-        <v>0</v>
-      </c>
-      <c r="D283" t="s">
-        <v>102</v>
-      </c>
-      <c r="E283" t="s">
-        <v>78</v>
-      </c>
-      <c r="G283" t="s">
-        <v>3</v>
-      </c>
-      <c r="H283" t="s">
-        <v>5</v>
-      </c>
-      <c r="J283" t="s">
-        <v>7</v>
-      </c>
-      <c r="K283" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11">
-      <c r="A284" t="s">
-        <v>74</v>
-      </c>
-      <c r="B284">
-        <v>30</v>
-      </c>
-      <c r="C284">
-        <v>1</v>
-      </c>
-      <c r="D284" t="s">
-        <v>103</v>
-      </c>
-      <c r="E284" t="s">
-        <v>76</v>
-      </c>
-      <c r="F284">
-        <v>-583</v>
-      </c>
-      <c r="G284" t="s">
-        <v>3</v>
-      </c>
-      <c r="H284" t="s">
-        <v>5</v>
-      </c>
-      <c r="J284" t="s">
-        <v>7</v>
-      </c>
-      <c r="K284" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11">
-      <c r="A285" t="s">
-        <v>74</v>
-      </c>
-      <c r="B285">
-        <v>30</v>
-      </c>
-      <c r="C285">
-        <v>1</v>
-      </c>
-      <c r="D285" t="s">
-        <v>103</v>
-      </c>
-      <c r="E285" t="s">
-        <v>77</v>
-      </c>
-      <c r="F285">
-        <v>-300</v>
-      </c>
-      <c r="G285" t="s">
-        <v>3</v>
-      </c>
-      <c r="H285" t="s">
-        <v>5</v>
-      </c>
-      <c r="J285" t="s">
-        <v>7</v>
-      </c>
-      <c r="K285" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11">
-      <c r="A286" t="s">
-        <v>74</v>
-      </c>
-      <c r="B286">
-        <v>30</v>
-      </c>
-      <c r="C286">
-        <v>1</v>
-      </c>
-      <c r="D286" t="s">
-        <v>103</v>
-      </c>
-      <c r="E286" t="s">
-        <v>78</v>
-      </c>
-      <c r="F286">
-        <v>-404</v>
-      </c>
-      <c r="G286" t="s">
-        <v>3</v>
-      </c>
-      <c r="H286" t="s">
-        <v>5</v>
-      </c>
-      <c r="J286" t="s">
-        <v>7</v>
-      </c>
-      <c r="K286" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="287" spans="1:11">
-      <c r="A287" t="s">
-        <v>74</v>
-      </c>
-      <c r="B287">
-        <v>31</v>
-      </c>
-      <c r="C287">
-        <v>1</v>
-      </c>
-      <c r="D287" t="s">
-        <v>104</v>
-      </c>
-      <c r="E287" t="s">
-        <v>76</v>
-      </c>
-      <c r="F287">
-        <v>-56</v>
-      </c>
-      <c r="G287" t="s">
-        <v>3</v>
-      </c>
-      <c r="H287" t="s">
-        <v>5</v>
-      </c>
-      <c r="J287" t="s">
-        <v>7</v>
-      </c>
-      <c r="K287" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="288" spans="1:11">
-      <c r="A288" t="s">
-        <v>74</v>
-      </c>
-      <c r="B288">
-        <v>31</v>
-      </c>
-      <c r="C288">
-        <v>1</v>
-      </c>
-      <c r="D288" t="s">
-        <v>104</v>
-      </c>
-      <c r="E288" t="s">
-        <v>77</v>
-      </c>
-      <c r="F288">
-        <v>-56</v>
-      </c>
-      <c r="G288" t="s">
-        <v>3</v>
-      </c>
-      <c r="H288" t="s">
-        <v>5</v>
-      </c>
-      <c r="J288" t="s">
-        <v>7</v>
-      </c>
-      <c r="K288" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11">
-      <c r="A289" t="s">
-        <v>74</v>
-      </c>
-      <c r="B289">
-        <v>31</v>
-      </c>
-      <c r="C289">
-        <v>1</v>
-      </c>
-      <c r="D289" t="s">
-        <v>104</v>
-      </c>
-      <c r="E289" t="s">
-        <v>78</v>
-      </c>
-      <c r="F289">
-        <v>-56</v>
-      </c>
-      <c r="G289" t="s">
-        <v>3</v>
-      </c>
-      <c r="H289" t="s">
-        <v>5</v>
-      </c>
-      <c r="J289" t="s">
-        <v>7</v>
-      </c>
-      <c r="K289" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11">
-      <c r="A290" t="s">
-        <v>74</v>
-      </c>
-      <c r="B290">
-        <v>32</v>
-      </c>
-      <c r="C290">
-        <v>0</v>
-      </c>
-      <c r="D290" t="s">
-        <v>105</v>
-      </c>
-      <c r="E290" t="s">
-        <v>76</v>
-      </c>
-      <c r="G290" t="s">
-        <v>3</v>
-      </c>
-      <c r="H290" t="s">
-        <v>5</v>
-      </c>
-      <c r="J290" t="s">
-        <v>7</v>
-      </c>
-      <c r="K290" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11">
-      <c r="A291" t="s">
-        <v>74</v>
-      </c>
-      <c r="B291">
-        <v>32</v>
-      </c>
-      <c r="C291">
-        <v>0</v>
-      </c>
-      <c r="D291" t="s">
-        <v>105</v>
-      </c>
-      <c r="E291" t="s">
-        <v>77</v>
-      </c>
-      <c r="G291" t="s">
-        <v>3</v>
-      </c>
-      <c r="H291" t="s">
-        <v>5</v>
-      </c>
-      <c r="J291" t="s">
-        <v>7</v>
-      </c>
-      <c r="K291" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11">
-      <c r="A292" t="s">
-        <v>74</v>
-      </c>
-      <c r="B292">
-        <v>32</v>
-      </c>
-      <c r="C292">
-        <v>0</v>
-      </c>
-      <c r="D292" t="s">
-        <v>105</v>
-      </c>
-      <c r="E292" t="s">
-        <v>78</v>
-      </c>
-      <c r="G292" t="s">
-        <v>3</v>
-      </c>
-      <c r="H292" t="s">
-        <v>5</v>
-      </c>
-      <c r="J292" t="s">
-        <v>7</v>
-      </c>
-      <c r="K292" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11">
-      <c r="A293" t="s">
-        <v>74</v>
-      </c>
-      <c r="B293">
-        <v>33</v>
-      </c>
-      <c r="C293">
-        <v>1</v>
-      </c>
-      <c r="D293" t="s">
-        <v>106</v>
-      </c>
-      <c r="E293" t="s">
-        <v>76</v>
-      </c>
-      <c r="F293">
-        <v>-3</v>
-      </c>
-      <c r="G293" t="s">
-        <v>3</v>
-      </c>
-      <c r="H293" t="s">
-        <v>5</v>
-      </c>
-      <c r="J293" t="s">
-        <v>7</v>
-      </c>
-      <c r="K293" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11">
-      <c r="A294" t="s">
-        <v>74</v>
-      </c>
-      <c r="B294">
-        <v>33</v>
-      </c>
-      <c r="C294">
-        <v>1</v>
-      </c>
-      <c r="D294" t="s">
-        <v>106</v>
-      </c>
-      <c r="E294" t="s">
-        <v>77</v>
-      </c>
-      <c r="F294">
-        <v>-25</v>
-      </c>
-      <c r="G294" t="s">
-        <v>3</v>
-      </c>
-      <c r="H294" t="s">
-        <v>5</v>
-      </c>
-      <c r="J294" t="s">
-        <v>7</v>
-      </c>
-      <c r="K294" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11">
-      <c r="A295" t="s">
-        <v>74</v>
-      </c>
-      <c r="B295">
-        <v>33</v>
-      </c>
-      <c r="C295">
-        <v>1</v>
-      </c>
-      <c r="D295" t="s">
-        <v>106</v>
-      </c>
-      <c r="E295" t="s">
-        <v>78</v>
-      </c>
-      <c r="G295" t="s">
-        <v>3</v>
-      </c>
-      <c r="H295" t="s">
-        <v>5</v>
-      </c>
-      <c r="J295" t="s">
-        <v>7</v>
-      </c>
-      <c r="K295" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11612,90 +9906,90 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" t="s">
         <v>118</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>122</v>
-      </c>
-      <c r="C5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" t="s">
         <v>123</v>
-      </c>
-      <c r="C7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
